--- a/Analyse.xlsx
+++ b/Analyse.xlsx
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3113,6 +3113,848 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="104" spans="1:23">
+      <c r="A104" s="2">
+        <v>45139</v>
+      </c>
+      <c r="D104">
+        <v>6500</v>
+      </c>
+      <c r="F104">
+        <v>5000</v>
+      </c>
+      <c r="I104">
+        <v>10500</v>
+      </c>
+      <c r="J104">
+        <v>1000</v>
+      </c>
+      <c r="R104">
+        <v>1000</v>
+      </c>
+      <c r="S104">
+        <v>18000</v>
+      </c>
+      <c r="V104">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B105">
+        <v>100000</v>
+      </c>
+      <c r="C105">
+        <v>5000</v>
+      </c>
+      <c r="D105">
+        <v>204500</v>
+      </c>
+      <c r="F105">
+        <v>272900</v>
+      </c>
+      <c r="K105">
+        <v>110000</v>
+      </c>
+      <c r="R105">
+        <v>9500</v>
+      </c>
+      <c r="S105">
+        <v>1600</v>
+      </c>
+      <c r="U105">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C106">
+        <v>92000</v>
+      </c>
+      <c r="D106">
+        <v>177050</v>
+      </c>
+      <c r="E106">
+        <v>39550</v>
+      </c>
+      <c r="F106">
+        <v>23500</v>
+      </c>
+      <c r="I106">
+        <v>5250</v>
+      </c>
+      <c r="J106">
+        <v>1000</v>
+      </c>
+      <c r="K106">
+        <v>50000</v>
+      </c>
+      <c r="O106">
+        <v>5000</v>
+      </c>
+      <c r="R106">
+        <v>4000</v>
+      </c>
+      <c r="S106">
+        <v>9000</v>
+      </c>
+      <c r="T106">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="2">
+        <v>45142</v>
+      </c>
+      <c r="D107">
+        <v>83975</v>
+      </c>
+      <c r="E107">
+        <v>63025</v>
+      </c>
+      <c r="F107">
+        <v>226400</v>
+      </c>
+      <c r="I107">
+        <v>3500</v>
+      </c>
+      <c r="J107">
+        <v>1000</v>
+      </c>
+      <c r="M107">
+        <v>75000</v>
+      </c>
+      <c r="R107">
+        <v>24100</v>
+      </c>
+      <c r="T107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="2">
+        <v>45143</v>
+      </c>
+      <c r="D108">
+        <v>107350</v>
+      </c>
+      <c r="F108">
+        <v>297200</v>
+      </c>
+      <c r="I108">
+        <v>4500</v>
+      </c>
+      <c r="J108">
+        <v>1000</v>
+      </c>
+      <c r="N108">
+        <v>9000</v>
+      </c>
+      <c r="R108">
+        <v>3600</v>
+      </c>
+      <c r="U108">
+        <v>25000</v>
+      </c>
+      <c r="V108">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" s="2">
+        <v>45144</v>
+      </c>
+      <c r="C109">
+        <v>1000</v>
+      </c>
+      <c r="D109">
+        <v>73750</v>
+      </c>
+      <c r="F109">
+        <v>33400</v>
+      </c>
+      <c r="G109">
+        <v>1890450</v>
+      </c>
+      <c r="I109">
+        <v>3500</v>
+      </c>
+      <c r="J109">
+        <v>1000</v>
+      </c>
+      <c r="R109">
+        <v>9000</v>
+      </c>
+      <c r="S109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" s="2">
+        <v>45145</v>
+      </c>
+      <c r="C110">
+        <v>92000</v>
+      </c>
+      <c r="D110">
+        <v>191950</v>
+      </c>
+      <c r="I110">
+        <v>2000</v>
+      </c>
+      <c r="J110">
+        <v>1000</v>
+      </c>
+      <c r="Q110">
+        <v>3000</v>
+      </c>
+      <c r="R110">
+        <v>500</v>
+      </c>
+      <c r="U110">
+        <v>20000</v>
+      </c>
+      <c r="V110">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C111">
+        <v>1500</v>
+      </c>
+      <c r="D111">
+        <v>64000</v>
+      </c>
+      <c r="F111">
+        <v>34400</v>
+      </c>
+      <c r="I111">
+        <v>7000</v>
+      </c>
+      <c r="J111">
+        <v>1000</v>
+      </c>
+      <c r="R111">
+        <v>5000</v>
+      </c>
+      <c r="V111">
+        <v>1000</v>
+      </c>
+      <c r="W111">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" s="2">
+        <v>45147</v>
+      </c>
+      <c r="D112">
+        <v>168500</v>
+      </c>
+      <c r="F112">
+        <v>20500</v>
+      </c>
+      <c r="I112">
+        <v>7000</v>
+      </c>
+      <c r="J112">
+        <v>1000</v>
+      </c>
+      <c r="K112">
+        <v>80000</v>
+      </c>
+      <c r="R112">
+        <v>28000</v>
+      </c>
+      <c r="U112">
+        <v>16000</v>
+      </c>
+      <c r="V112">
+        <v>397000</v>
+      </c>
+      <c r="W112">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C113">
+        <v>92000</v>
+      </c>
+      <c r="D113">
+        <v>71450</v>
+      </c>
+      <c r="F113">
+        <v>272000</v>
+      </c>
+      <c r="J113">
+        <v>1000</v>
+      </c>
+      <c r="K113">
+        <v>40000</v>
+      </c>
+      <c r="M113">
+        <v>300000</v>
+      </c>
+      <c r="O113">
+        <v>25000</v>
+      </c>
+      <c r="R113">
+        <v>42000</v>
+      </c>
+      <c r="U113">
+        <v>130000</v>
+      </c>
+      <c r="V113">
+        <v>80000</v>
+      </c>
+      <c r="W113">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114" s="2">
+        <v>45149</v>
+      </c>
+      <c r="D114">
+        <v>69600</v>
+      </c>
+      <c r="F114">
+        <v>417500</v>
+      </c>
+      <c r="I114">
+        <v>10500</v>
+      </c>
+      <c r="J114">
+        <v>1000</v>
+      </c>
+      <c r="R114">
+        <v>6500</v>
+      </c>
+      <c r="T114">
+        <v>1500</v>
+      </c>
+      <c r="U114">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115" s="2">
+        <v>45150</v>
+      </c>
+      <c r="D115">
+        <v>122500</v>
+      </c>
+      <c r="F115">
+        <v>92600</v>
+      </c>
+      <c r="I115">
+        <v>3500</v>
+      </c>
+      <c r="J115">
+        <v>1000</v>
+      </c>
+      <c r="R115">
+        <v>14500</v>
+      </c>
+      <c r="U115">
+        <v>39000</v>
+      </c>
+      <c r="V115">
+        <v>135000</v>
+      </c>
+      <c r="W115">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
+      <c r="A116" s="2">
+        <v>45151</v>
+      </c>
+      <c r="C116">
+        <v>92000</v>
+      </c>
+      <c r="D116">
+        <v>159375</v>
+      </c>
+      <c r="F116">
+        <v>529400</v>
+      </c>
+      <c r="G116">
+        <v>1726500</v>
+      </c>
+      <c r="I116">
+        <v>9000</v>
+      </c>
+      <c r="J116">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
+      <c r="A117" s="2">
+        <v>45152</v>
+      </c>
+      <c r="D117">
+        <v>140175</v>
+      </c>
+      <c r="F117">
+        <v>49100</v>
+      </c>
+      <c r="J117">
+        <v>1000</v>
+      </c>
+      <c r="N117">
+        <v>1000</v>
+      </c>
+      <c r="R117">
+        <v>4500</v>
+      </c>
+      <c r="V117">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
+      <c r="A118" s="2">
+        <v>45153</v>
+      </c>
+      <c r="D118">
+        <v>16500</v>
+      </c>
+      <c r="F118">
+        <v>4800</v>
+      </c>
+      <c r="I118">
+        <v>10500</v>
+      </c>
+      <c r="J118">
+        <v>1000</v>
+      </c>
+      <c r="R118">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
+      <c r="A119" s="2">
+        <v>45154</v>
+      </c>
+      <c r="D119">
+        <v>110250</v>
+      </c>
+      <c r="F119">
+        <v>961400</v>
+      </c>
+      <c r="I119">
+        <v>10500</v>
+      </c>
+      <c r="J119">
+        <v>1000</v>
+      </c>
+      <c r="O119">
+        <v>55000</v>
+      </c>
+      <c r="R119">
+        <v>56000</v>
+      </c>
+      <c r="S119">
+        <v>10000</v>
+      </c>
+      <c r="U119">
+        <v>40000</v>
+      </c>
+      <c r="V119">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
+      <c r="A120" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C120">
+        <v>92000</v>
+      </c>
+      <c r="D120">
+        <v>155600</v>
+      </c>
+      <c r="F120">
+        <v>33900</v>
+      </c>
+      <c r="I120">
+        <v>10500</v>
+      </c>
+      <c r="J120">
+        <v>1000</v>
+      </c>
+      <c r="K120">
+        <v>30000</v>
+      </c>
+      <c r="Q120">
+        <v>2000</v>
+      </c>
+      <c r="R120">
+        <v>9000</v>
+      </c>
+      <c r="T120">
+        <v>1500</v>
+      </c>
+      <c r="V120">
+        <v>338800</v>
+      </c>
+      <c r="W120">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
+      <c r="A121" s="2">
+        <v>45156</v>
+      </c>
+      <c r="D121">
+        <v>128700</v>
+      </c>
+      <c r="I121">
+        <v>10500</v>
+      </c>
+      <c r="J121">
+        <v>1000</v>
+      </c>
+      <c r="R121">
+        <v>28500</v>
+      </c>
+      <c r="S121">
+        <v>1000</v>
+      </c>
+      <c r="U121">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
+      <c r="A122" s="2">
+        <v>45157</v>
+      </c>
+      <c r="D122">
+        <v>100550</v>
+      </c>
+      <c r="I122">
+        <v>7000</v>
+      </c>
+      <c r="J122">
+        <v>1000</v>
+      </c>
+      <c r="R122">
+        <v>3000</v>
+      </c>
+      <c r="T122">
+        <v>1500</v>
+      </c>
+      <c r="W122">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123" s="2">
+        <v>45158</v>
+      </c>
+      <c r="C123">
+        <v>77500</v>
+      </c>
+      <c r="D123">
+        <v>102225</v>
+      </c>
+      <c r="G123">
+        <v>2060800</v>
+      </c>
+      <c r="I123">
+        <v>10500</v>
+      </c>
+      <c r="T123">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
+      <c r="A124" s="2">
+        <v>45159</v>
+      </c>
+      <c r="D124">
+        <v>97750</v>
+      </c>
+      <c r="E124">
+        <v>37250</v>
+      </c>
+      <c r="J124">
+        <v>1000</v>
+      </c>
+      <c r="R124">
+        <v>9000</v>
+      </c>
+      <c r="V124">
+        <v>765000</v>
+      </c>
+      <c r="W124">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
+      <c r="A125" s="2">
+        <v>45160</v>
+      </c>
+      <c r="D125">
+        <v>13000</v>
+      </c>
+      <c r="F125">
+        <v>240900</v>
+      </c>
+      <c r="I125">
+        <v>10500</v>
+      </c>
+      <c r="J125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
+      <c r="A126" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C126">
+        <v>77500</v>
+      </c>
+      <c r="D126">
+        <v>132150</v>
+      </c>
+      <c r="F126">
+        <v>518700</v>
+      </c>
+      <c r="I126">
+        <v>10500</v>
+      </c>
+      <c r="J126">
+        <v>1000</v>
+      </c>
+      <c r="K126">
+        <v>160000</v>
+      </c>
+      <c r="Q126">
+        <v>3000</v>
+      </c>
+      <c r="R126">
+        <v>30500</v>
+      </c>
+      <c r="T126">
+        <v>2100</v>
+      </c>
+      <c r="U126">
+        <v>145650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
+      <c r="A127" s="2">
+        <v>45162</v>
+      </c>
+      <c r="D127">
+        <v>119400</v>
+      </c>
+      <c r="F127">
+        <v>105600</v>
+      </c>
+      <c r="J127">
+        <v>1000</v>
+      </c>
+      <c r="K127">
+        <v>30000</v>
+      </c>
+      <c r="R127">
+        <v>9000</v>
+      </c>
+      <c r="V127">
+        <v>51750</v>
+      </c>
+      <c r="W127">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128" s="2">
+        <v>45163</v>
+      </c>
+      <c r="D128">
+        <v>96900</v>
+      </c>
+      <c r="F128">
+        <v>86000</v>
+      </c>
+      <c r="I128">
+        <v>21000</v>
+      </c>
+      <c r="W128">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
+      <c r="A129" s="2">
+        <v>45164</v>
+      </c>
+      <c r="C129">
+        <v>77500</v>
+      </c>
+      <c r="D129">
+        <v>118225</v>
+      </c>
+      <c r="F129">
+        <v>545300</v>
+      </c>
+      <c r="I129">
+        <v>6500</v>
+      </c>
+      <c r="J129">
+        <v>1000</v>
+      </c>
+      <c r="R129">
+        <v>5500</v>
+      </c>
+      <c r="W129">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
+      <c r="A130" s="2">
+        <v>45165</v>
+      </c>
+      <c r="D130">
+        <v>95650</v>
+      </c>
+      <c r="F130">
+        <v>103000</v>
+      </c>
+      <c r="G130">
+        <v>1643150</v>
+      </c>
+      <c r="I130">
+        <v>10500</v>
+      </c>
+      <c r="J130">
+        <v>1000</v>
+      </c>
+      <c r="M130">
+        <v>30000</v>
+      </c>
+      <c r="R130">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
+      <c r="A131" s="2">
+        <v>45166</v>
+      </c>
+      <c r="C131">
+        <v>77500</v>
+      </c>
+      <c r="D131">
+        <v>223500</v>
+      </c>
+      <c r="F131">
+        <v>2500</v>
+      </c>
+      <c r="I131">
+        <v>2000</v>
+      </c>
+      <c r="J131">
+        <v>500</v>
+      </c>
+      <c r="M131">
+        <v>300000</v>
+      </c>
+      <c r="R131">
+        <v>500</v>
+      </c>
+      <c r="S131">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
+      <c r="A132" s="2">
+        <v>45167</v>
+      </c>
+      <c r="D132">
+        <v>35000</v>
+      </c>
+      <c r="F132">
+        <v>29000</v>
+      </c>
+      <c r="I132">
+        <v>10500</v>
+      </c>
+      <c r="O132">
+        <v>5000</v>
+      </c>
+      <c r="R132">
+        <v>9000</v>
+      </c>
+      <c r="V132">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
+      <c r="A133" s="2">
+        <v>45168</v>
+      </c>
+      <c r="D133">
+        <v>101550</v>
+      </c>
+      <c r="F133">
+        <v>1395200</v>
+      </c>
+      <c r="I133">
+        <v>10500</v>
+      </c>
+      <c r="J133">
+        <v>1000</v>
+      </c>
+      <c r="K133">
+        <v>60000</v>
+      </c>
+      <c r="R133">
+        <v>105500</v>
+      </c>
+      <c r="S133">
+        <v>3000</v>
+      </c>
+      <c r="V133">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
+      <c r="A134" s="2">
+        <v>45169</v>
+      </c>
+      <c r="C134">
+        <v>77500</v>
+      </c>
+      <c r="D134">
+        <v>69950</v>
+      </c>
+      <c r="F134">
+        <v>42500</v>
+      </c>
+      <c r="J134">
+        <v>1000</v>
+      </c>
+      <c r="K134">
+        <v>30000</v>
+      </c>
+      <c r="P134">
+        <v>200000</v>
+      </c>
+      <c r="R134">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyse.xlsx
+++ b/Analyse.xlsx
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W134"/>
+  <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3955,6 +3955,711 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="135" spans="1:23">
+      <c r="A135" s="2">
+        <v>45170</v>
+      </c>
+      <c r="D135">
+        <v>72000</v>
+      </c>
+      <c r="F135">
+        <v>130000</v>
+      </c>
+      <c r="I135">
+        <v>21000</v>
+      </c>
+      <c r="J135">
+        <v>1000</v>
+      </c>
+      <c r="R135">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
+      <c r="A136" s="2">
+        <v>45171</v>
+      </c>
+      <c r="C136">
+        <v>77500</v>
+      </c>
+      <c r="D136">
+        <v>90225</v>
+      </c>
+      <c r="F136">
+        <v>65500</v>
+      </c>
+      <c r="I136">
+        <v>2000</v>
+      </c>
+      <c r="J136">
+        <v>1000</v>
+      </c>
+      <c r="R136">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
+      <c r="A137" s="2">
+        <v>45172</v>
+      </c>
+      <c r="D137">
+        <v>121425</v>
+      </c>
+      <c r="G137">
+        <v>2052550</v>
+      </c>
+      <c r="I137">
+        <v>8750</v>
+      </c>
+      <c r="J137">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
+      <c r="A138" s="2">
+        <v>45173</v>
+      </c>
+      <c r="C138">
+        <v>77500</v>
+      </c>
+      <c r="D138">
+        <v>134000</v>
+      </c>
+      <c r="F138">
+        <v>1247500</v>
+      </c>
+      <c r="I138">
+        <v>2000</v>
+      </c>
+      <c r="J138">
+        <v>1000</v>
+      </c>
+      <c r="R138">
+        <v>39000</v>
+      </c>
+      <c r="T138">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
+      <c r="A139" s="2">
+        <v>45174</v>
+      </c>
+      <c r="D139">
+        <v>22000</v>
+      </c>
+      <c r="F139">
+        <v>35000</v>
+      </c>
+      <c r="R139">
+        <v>2000</v>
+      </c>
+      <c r="V139">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
+      <c r="A140" s="2">
+        <v>45175</v>
+      </c>
+      <c r="D140">
+        <v>73900</v>
+      </c>
+      <c r="E140">
+        <v>22500</v>
+      </c>
+      <c r="F140">
+        <v>223800</v>
+      </c>
+      <c r="I140">
+        <v>21000</v>
+      </c>
+      <c r="J140">
+        <v>1000</v>
+      </c>
+      <c r="K140">
+        <v>100000</v>
+      </c>
+      <c r="R140">
+        <v>9000</v>
+      </c>
+      <c r="T140">
+        <v>2000</v>
+      </c>
+      <c r="U140">
+        <v>25000</v>
+      </c>
+      <c r="V140">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
+      <c r="A141" s="2">
+        <v>45176</v>
+      </c>
+      <c r="C141">
+        <v>77500</v>
+      </c>
+      <c r="D141">
+        <v>154150</v>
+      </c>
+      <c r="E141">
+        <v>37250</v>
+      </c>
+      <c r="F141">
+        <v>100000</v>
+      </c>
+      <c r="I141">
+        <v>10500</v>
+      </c>
+      <c r="J141">
+        <v>1000</v>
+      </c>
+      <c r="K141">
+        <v>35000</v>
+      </c>
+      <c r="Q141">
+        <v>100000</v>
+      </c>
+      <c r="S141">
+        <v>38500</v>
+      </c>
+      <c r="U141">
+        <v>8000</v>
+      </c>
+      <c r="V141">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
+      <c r="A142" s="2">
+        <v>45177</v>
+      </c>
+      <c r="D142">
+        <v>85200</v>
+      </c>
+      <c r="F142">
+        <v>84500</v>
+      </c>
+      <c r="I142">
+        <v>10500</v>
+      </c>
+      <c r="J142">
+        <v>1000</v>
+      </c>
+      <c r="N142">
+        <v>9000</v>
+      </c>
+      <c r="Q142">
+        <v>3000</v>
+      </c>
+      <c r="R142">
+        <v>10000</v>
+      </c>
+      <c r="V142">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
+      <c r="A143" s="2">
+        <v>45178</v>
+      </c>
+      <c r="D143">
+        <v>169100</v>
+      </c>
+      <c r="J143">
+        <v>1000</v>
+      </c>
+      <c r="R143">
+        <v>2000</v>
+      </c>
+      <c r="S143">
+        <v>24000</v>
+      </c>
+      <c r="T143">
+        <v>500</v>
+      </c>
+      <c r="V143">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
+      <c r="A144" s="2">
+        <v>45179</v>
+      </c>
+      <c r="C144">
+        <v>77500</v>
+      </c>
+      <c r="D144">
+        <v>159800</v>
+      </c>
+      <c r="F144">
+        <v>52000</v>
+      </c>
+      <c r="G144">
+        <v>1890900</v>
+      </c>
+      <c r="I144">
+        <v>10500</v>
+      </c>
+      <c r="J144">
+        <v>1000</v>
+      </c>
+      <c r="K144">
+        <v>80000</v>
+      </c>
+      <c r="R144">
+        <v>30000</v>
+      </c>
+      <c r="S144">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" s="2">
+        <v>45180</v>
+      </c>
+      <c r="D145">
+        <v>91300</v>
+      </c>
+      <c r="F145">
+        <v>182000</v>
+      </c>
+      <c r="J145">
+        <v>1000</v>
+      </c>
+      <c r="R145">
+        <v>10000</v>
+      </c>
+      <c r="V145">
+        <v>600000</v>
+      </c>
+      <c r="W145">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146" s="2">
+        <v>45181</v>
+      </c>
+      <c r="D146">
+        <v>25500</v>
+      </c>
+      <c r="F146">
+        <v>274000</v>
+      </c>
+      <c r="I146">
+        <v>6500</v>
+      </c>
+      <c r="J146">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" s="2">
+        <v>45182</v>
+      </c>
+      <c r="D147">
+        <v>123750</v>
+      </c>
+      <c r="F147">
+        <v>184000</v>
+      </c>
+      <c r="I147">
+        <v>10500</v>
+      </c>
+      <c r="J147">
+        <v>1000</v>
+      </c>
+      <c r="K147">
+        <v>85000</v>
+      </c>
+      <c r="M147">
+        <v>300500</v>
+      </c>
+      <c r="R147">
+        <v>14000</v>
+      </c>
+      <c r="V147">
+        <v>120000</v>
+      </c>
+      <c r="W147">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148" s="2">
+        <v>45183</v>
+      </c>
+      <c r="C148">
+        <v>77500</v>
+      </c>
+      <c r="D148">
+        <v>64100</v>
+      </c>
+      <c r="F148">
+        <v>877300</v>
+      </c>
+      <c r="I148">
+        <v>10500</v>
+      </c>
+      <c r="J148">
+        <v>1000</v>
+      </c>
+      <c r="K148">
+        <v>35000</v>
+      </c>
+      <c r="V148">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149" s="2">
+        <v>45184</v>
+      </c>
+      <c r="D149">
+        <v>73000</v>
+      </c>
+      <c r="F149">
+        <v>163300</v>
+      </c>
+      <c r="I149">
+        <v>10500</v>
+      </c>
+      <c r="J149">
+        <v>1000</v>
+      </c>
+      <c r="R149">
+        <v>4500</v>
+      </c>
+      <c r="S149">
+        <v>9500</v>
+      </c>
+      <c r="U149">
+        <v>40000</v>
+      </c>
+      <c r="W149">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150" s="2">
+        <v>45185</v>
+      </c>
+      <c r="D150">
+        <v>137000</v>
+      </c>
+      <c r="F150">
+        <v>53900</v>
+      </c>
+      <c r="I150">
+        <v>10500</v>
+      </c>
+      <c r="J150">
+        <v>1000</v>
+      </c>
+      <c r="O150">
+        <v>55000</v>
+      </c>
+      <c r="R150">
+        <v>10000</v>
+      </c>
+      <c r="W150">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151" s="2">
+        <v>45186</v>
+      </c>
+      <c r="C151">
+        <v>77500</v>
+      </c>
+      <c r="D151">
+        <v>131125</v>
+      </c>
+      <c r="F151">
+        <v>29600</v>
+      </c>
+      <c r="G151">
+        <v>2267600</v>
+      </c>
+      <c r="I151">
+        <v>15750</v>
+      </c>
+      <c r="J151">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
+      <c r="A152" s="2">
+        <v>45187</v>
+      </c>
+      <c r="D152">
+        <v>170050</v>
+      </c>
+      <c r="F152">
+        <v>640000</v>
+      </c>
+      <c r="R152">
+        <v>38000</v>
+      </c>
+      <c r="W152">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
+      <c r="A153" s="2">
+        <v>45188</v>
+      </c>
+      <c r="D153">
+        <v>23500</v>
+      </c>
+      <c r="F153">
+        <v>5500</v>
+      </c>
+      <c r="I153">
+        <v>10500</v>
+      </c>
+      <c r="J153">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23">
+      <c r="A154" s="2">
+        <v>45189</v>
+      </c>
+      <c r="C154">
+        <v>77500</v>
+      </c>
+      <c r="D154">
+        <v>138500</v>
+      </c>
+      <c r="F154">
+        <v>38500</v>
+      </c>
+      <c r="I154">
+        <v>10500</v>
+      </c>
+      <c r="J154">
+        <v>1000</v>
+      </c>
+      <c r="K154">
+        <v>165000</v>
+      </c>
+      <c r="R154">
+        <v>9000</v>
+      </c>
+      <c r="U154">
+        <v>25000</v>
+      </c>
+      <c r="W154">
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
+      <c r="A155" s="2">
+        <v>45190</v>
+      </c>
+      <c r="D155">
+        <v>70700</v>
+      </c>
+      <c r="F155">
+        <v>414000</v>
+      </c>
+      <c r="I155">
+        <v>10500</v>
+      </c>
+      <c r="J155">
+        <v>1000</v>
+      </c>
+      <c r="K155">
+        <v>70000</v>
+      </c>
+      <c r="R155">
+        <v>2000</v>
+      </c>
+      <c r="W155">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
+      <c r="A156" s="2">
+        <v>45191</v>
+      </c>
+      <c r="D156">
+        <v>44650</v>
+      </c>
+      <c r="F156">
+        <v>49500</v>
+      </c>
+      <c r="I156">
+        <v>10500</v>
+      </c>
+      <c r="J156">
+        <v>1000</v>
+      </c>
+      <c r="Q156">
+        <v>1000</v>
+      </c>
+      <c r="R156">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
+      <c r="A157" s="2">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
+      <c r="A158" s="2">
+        <v>45193</v>
+      </c>
+      <c r="D158">
+        <v>88400</v>
+      </c>
+      <c r="F158">
+        <v>4000</v>
+      </c>
+      <c r="I158">
+        <v>10500</v>
+      </c>
+      <c r="J158">
+        <v>1000</v>
+      </c>
+      <c r="R158">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
+      <c r="A159" s="2">
+        <v>45194</v>
+      </c>
+      <c r="D159">
+        <v>144075</v>
+      </c>
+      <c r="F159">
+        <v>123000</v>
+      </c>
+      <c r="J159">
+        <v>1000</v>
+      </c>
+      <c r="V159">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
+      <c r="A160" s="2">
+        <v>45195</v>
+      </c>
+      <c r="F160">
+        <v>47000</v>
+      </c>
+      <c r="I160">
+        <v>10500</v>
+      </c>
+      <c r="J160">
+        <v>1000</v>
+      </c>
+      <c r="U160">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
+      <c r="A161" s="2">
+        <v>45196</v>
+      </c>
+      <c r="C161">
+        <v>77500</v>
+      </c>
+      <c r="D161">
+        <v>86600</v>
+      </c>
+      <c r="F161">
+        <v>49800</v>
+      </c>
+      <c r="I161">
+        <v>10500</v>
+      </c>
+      <c r="J161">
+        <v>1000</v>
+      </c>
+      <c r="K161">
+        <v>50000</v>
+      </c>
+      <c r="R161">
+        <v>40000</v>
+      </c>
+      <c r="T161">
+        <v>1000</v>
+      </c>
+      <c r="V161">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23">
+      <c r="A162" s="2">
+        <v>45197</v>
+      </c>
+      <c r="D162">
+        <v>103175</v>
+      </c>
+      <c r="E162">
+        <v>37250</v>
+      </c>
+      <c r="F162">
+        <v>53500</v>
+      </c>
+      <c r="I162">
+        <v>10500</v>
+      </c>
+      <c r="J162">
+        <v>1000</v>
+      </c>
+      <c r="K162">
+        <v>35000</v>
+      </c>
+      <c r="R162">
+        <v>12600</v>
+      </c>
+      <c r="W162">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23">
+      <c r="A163" s="2">
+        <v>45198</v>
+      </c>
+      <c r="C163">
+        <v>77500</v>
+      </c>
+      <c r="D163">
+        <v>57775</v>
+      </c>
+      <c r="F163">
+        <v>188500</v>
+      </c>
+      <c r="I163">
+        <v>7000</v>
+      </c>
+      <c r="J163">
+        <v>1000</v>
+      </c>
+      <c r="T163">
+        <v>3000</v>
+      </c>
+      <c r="V163">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="A164" s="2">
+        <v>45199</v>
+      </c>
+      <c r="P164">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyse.xlsx
+++ b/Analyse.xlsx
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W164"/>
+  <dimension ref="A1:W195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4660,6 +4660,785 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="165" spans="1:23">
+      <c r="A165" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D165">
+        <v>65850</v>
+      </c>
+      <c r="F165">
+        <v>123500</v>
+      </c>
+      <c r="G165">
+        <v>2027450</v>
+      </c>
+      <c r="I165">
+        <v>14000</v>
+      </c>
+      <c r="J165">
+        <v>1000</v>
+      </c>
+      <c r="R165">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
+      <c r="A166" s="2">
+        <v>45201</v>
+      </c>
+      <c r="C166">
+        <v>77500</v>
+      </c>
+      <c r="D166">
+        <v>215525</v>
+      </c>
+      <c r="J166">
+        <v>1000</v>
+      </c>
+      <c r="R166">
+        <v>9000</v>
+      </c>
+      <c r="S166">
+        <v>4400</v>
+      </c>
+      <c r="W166">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23">
+      <c r="A167" s="2">
+        <v>45202</v>
+      </c>
+      <c r="D167">
+        <v>19000</v>
+      </c>
+      <c r="F167">
+        <v>209000</v>
+      </c>
+      <c r="I167">
+        <v>10500</v>
+      </c>
+      <c r="J167">
+        <v>1000</v>
+      </c>
+      <c r="V167">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
+      <c r="A168" s="2">
+        <v>45203</v>
+      </c>
+      <c r="D168">
+        <v>79350</v>
+      </c>
+      <c r="I168">
+        <v>7000</v>
+      </c>
+      <c r="J168">
+        <v>1000</v>
+      </c>
+      <c r="K168">
+        <v>50000</v>
+      </c>
+      <c r="M168">
+        <v>250000</v>
+      </c>
+      <c r="Q168">
+        <v>1500</v>
+      </c>
+      <c r="R168">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
+      <c r="A169" s="2">
+        <v>45204</v>
+      </c>
+      <c r="C169">
+        <v>77500</v>
+      </c>
+      <c r="D169">
+        <v>121550</v>
+      </c>
+      <c r="F169">
+        <v>886000</v>
+      </c>
+      <c r="I169">
+        <v>5000</v>
+      </c>
+      <c r="J169">
+        <v>1000</v>
+      </c>
+      <c r="K169">
+        <v>55000</v>
+      </c>
+      <c r="V169">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
+      <c r="A170" s="2">
+        <v>45205</v>
+      </c>
+      <c r="D170">
+        <v>99750</v>
+      </c>
+      <c r="F170">
+        <v>187000</v>
+      </c>
+      <c r="I170">
+        <v>10500</v>
+      </c>
+      <c r="J170">
+        <v>1000</v>
+      </c>
+      <c r="R170">
+        <v>42000</v>
+      </c>
+      <c r="U170">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
+      <c r="A171" s="2">
+        <v>45206</v>
+      </c>
+      <c r="D171">
+        <v>112100</v>
+      </c>
+      <c r="F171">
+        <v>118400</v>
+      </c>
+      <c r="I171">
+        <v>8750</v>
+      </c>
+      <c r="J171">
+        <v>1000</v>
+      </c>
+      <c r="R171">
+        <v>30000</v>
+      </c>
+      <c r="S171">
+        <v>600</v>
+      </c>
+      <c r="V171">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23">
+      <c r="A172" s="2">
+        <v>45207</v>
+      </c>
+      <c r="C172">
+        <v>77500</v>
+      </c>
+      <c r="D172">
+        <v>54450</v>
+      </c>
+      <c r="F172">
+        <v>295500</v>
+      </c>
+      <c r="G172">
+        <v>1856550</v>
+      </c>
+      <c r="I172">
+        <v>17500</v>
+      </c>
+      <c r="J172">
+        <v>1000</v>
+      </c>
+      <c r="S172">
+        <v>160000</v>
+      </c>
+      <c r="T172">
+        <v>500</v>
+      </c>
+      <c r="V172">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
+      <c r="A173" s="2">
+        <v>45208</v>
+      </c>
+      <c r="C173">
+        <v>15000</v>
+      </c>
+      <c r="D173">
+        <v>106950</v>
+      </c>
+      <c r="E173">
+        <v>37250</v>
+      </c>
+      <c r="F173">
+        <v>30000</v>
+      </c>
+      <c r="J173">
+        <v>1000</v>
+      </c>
+      <c r="R173">
+        <v>10600</v>
+      </c>
+      <c r="U173">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
+      <c r="A174" s="2">
+        <v>45209</v>
+      </c>
+      <c r="D174">
+        <v>17500</v>
+      </c>
+      <c r="F174">
+        <v>41000</v>
+      </c>
+      <c r="I174">
+        <v>10500</v>
+      </c>
+      <c r="J174">
+        <v>1000</v>
+      </c>
+      <c r="R174">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
+      <c r="A175" s="2">
+        <v>45210</v>
+      </c>
+      <c r="C175">
+        <v>77500</v>
+      </c>
+      <c r="D175">
+        <v>58125</v>
+      </c>
+      <c r="F175">
+        <v>620500</v>
+      </c>
+      <c r="I175">
+        <v>10500</v>
+      </c>
+      <c r="J175">
+        <v>1000</v>
+      </c>
+      <c r="K175">
+        <v>90000</v>
+      </c>
+      <c r="R175">
+        <v>10600</v>
+      </c>
+      <c r="U175">
+        <v>90000</v>
+      </c>
+      <c r="V175">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
+      <c r="A176" s="2">
+        <v>45211</v>
+      </c>
+      <c r="D176">
+        <v>163700</v>
+      </c>
+      <c r="F176">
+        <v>126400</v>
+      </c>
+      <c r="I176">
+        <v>10500</v>
+      </c>
+      <c r="J176">
+        <v>1000</v>
+      </c>
+      <c r="K176">
+        <v>35000</v>
+      </c>
+      <c r="Q176">
+        <v>1400</v>
+      </c>
+      <c r="R176">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
+      <c r="A177" s="2">
+        <v>45212</v>
+      </c>
+      <c r="D177">
+        <v>149650</v>
+      </c>
+      <c r="F177">
+        <v>393200</v>
+      </c>
+      <c r="J177">
+        <v>1000</v>
+      </c>
+      <c r="T177">
+        <v>2000</v>
+      </c>
+      <c r="U177">
+        <v>157800</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
+      <c r="A178" s="2">
+        <v>45213</v>
+      </c>
+      <c r="C178">
+        <v>77500</v>
+      </c>
+      <c r="D178">
+        <v>82600</v>
+      </c>
+      <c r="F178">
+        <v>82000</v>
+      </c>
+      <c r="J178">
+        <v>1000</v>
+      </c>
+      <c r="M178">
+        <v>250000</v>
+      </c>
+      <c r="R178">
+        <v>9000</v>
+      </c>
+      <c r="U178">
+        <v>80700</v>
+      </c>
+      <c r="V178">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
+      <c r="A179" s="2">
+        <v>45214</v>
+      </c>
+      <c r="C179">
+        <v>77500</v>
+      </c>
+      <c r="D179">
+        <v>155100</v>
+      </c>
+      <c r="F179">
+        <v>134000</v>
+      </c>
+      <c r="G179">
+        <v>1440000</v>
+      </c>
+      <c r="I179">
+        <v>31500</v>
+      </c>
+      <c r="J179">
+        <v>1000</v>
+      </c>
+      <c r="R179">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
+      <c r="A180" s="2">
+        <v>45215</v>
+      </c>
+      <c r="D180">
+        <v>141650</v>
+      </c>
+      <c r="J180">
+        <v>1000</v>
+      </c>
+      <c r="O180">
+        <v>55000</v>
+      </c>
+      <c r="R180">
+        <v>39500</v>
+      </c>
+      <c r="T180">
+        <v>5000</v>
+      </c>
+      <c r="W180">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
+      <c r="A181" s="2">
+        <v>45216</v>
+      </c>
+      <c r="D181">
+        <v>19000</v>
+      </c>
+      <c r="F181">
+        <v>336000</v>
+      </c>
+      <c r="J181">
+        <v>1000</v>
+      </c>
+      <c r="Q181">
+        <v>2000</v>
+      </c>
+      <c r="R181">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
+      <c r="A182" s="2">
+        <v>45217</v>
+      </c>
+      <c r="D182">
+        <v>100050</v>
+      </c>
+      <c r="F182">
+        <v>65400</v>
+      </c>
+      <c r="I182">
+        <v>10000</v>
+      </c>
+      <c r="J182">
+        <v>1000</v>
+      </c>
+      <c r="K182">
+        <v>50000</v>
+      </c>
+      <c r="Q182">
+        <v>1000</v>
+      </c>
+      <c r="R182">
+        <v>4100</v>
+      </c>
+      <c r="T182">
+        <v>1000</v>
+      </c>
+      <c r="V182">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
+      <c r="A183" s="2">
+        <v>45218</v>
+      </c>
+      <c r="C183">
+        <v>77500</v>
+      </c>
+      <c r="D183">
+        <v>170400</v>
+      </c>
+      <c r="F183">
+        <v>73500</v>
+      </c>
+      <c r="J183">
+        <v>1000</v>
+      </c>
+      <c r="K183">
+        <v>35000</v>
+      </c>
+      <c r="R183">
+        <v>9000</v>
+      </c>
+      <c r="V183">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
+      <c r="A184" s="2">
+        <v>45219</v>
+      </c>
+      <c r="D184">
+        <v>68350</v>
+      </c>
+      <c r="F184">
+        <v>413000</v>
+      </c>
+      <c r="I184">
+        <v>10500</v>
+      </c>
+      <c r="J184">
+        <v>1000</v>
+      </c>
+      <c r="R184">
+        <v>10600</v>
+      </c>
+      <c r="V184">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
+      <c r="A185" s="2">
+        <v>45220</v>
+      </c>
+      <c r="C185">
+        <v>77500</v>
+      </c>
+      <c r="D185">
+        <v>145650</v>
+      </c>
+      <c r="I185">
+        <v>10500</v>
+      </c>
+      <c r="J185">
+        <v>1000</v>
+      </c>
+      <c r="M185">
+        <v>75000</v>
+      </c>
+      <c r="V185">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
+      <c r="A186" s="2">
+        <v>45221</v>
+      </c>
+      <c r="D186">
+        <v>115250</v>
+      </c>
+      <c r="F186">
+        <v>57000</v>
+      </c>
+      <c r="G186">
+        <v>1696900</v>
+      </c>
+      <c r="I186">
+        <v>17500</v>
+      </c>
+      <c r="J186">
+        <v>1000</v>
+      </c>
+      <c r="R186">
+        <v>2800</v>
+      </c>
+      <c r="V186">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
+      <c r="A187" s="2">
+        <v>45222</v>
+      </c>
+      <c r="D187">
+        <v>203050</v>
+      </c>
+      <c r="F187">
+        <v>642500</v>
+      </c>
+      <c r="J187">
+        <v>1000</v>
+      </c>
+      <c r="R187">
+        <v>64000</v>
+      </c>
+      <c r="S187">
+        <v>9000</v>
+      </c>
+      <c r="U187">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
+      <c r="A188" s="2">
+        <v>45223</v>
+      </c>
+      <c r="D188">
+        <v>25500</v>
+      </c>
+      <c r="F188">
+        <v>89000</v>
+      </c>
+      <c r="I188">
+        <v>10500</v>
+      </c>
+      <c r="J188">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
+      <c r="A189" s="2">
+        <v>45224</v>
+      </c>
+      <c r="C189">
+        <v>77500</v>
+      </c>
+      <c r="D189">
+        <v>120325</v>
+      </c>
+      <c r="F189">
+        <v>51500</v>
+      </c>
+      <c r="I189">
+        <v>10500</v>
+      </c>
+      <c r="J189">
+        <v>1000</v>
+      </c>
+      <c r="K189">
+        <v>60000</v>
+      </c>
+      <c r="R189">
+        <v>9000</v>
+      </c>
+      <c r="S189">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
+      <c r="A190" s="2">
+        <v>45225</v>
+      </c>
+      <c r="D190">
+        <v>121800</v>
+      </c>
+      <c r="F190">
+        <v>858900</v>
+      </c>
+      <c r="I190">
+        <v>10500</v>
+      </c>
+      <c r="J190">
+        <v>2000</v>
+      </c>
+      <c r="K190">
+        <v>35000</v>
+      </c>
+      <c r="R190">
+        <v>10600</v>
+      </c>
+      <c r="T190">
+        <v>11000</v>
+      </c>
+      <c r="U190">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23">
+      <c r="A191" s="2">
+        <v>45226</v>
+      </c>
+      <c r="D191">
+        <v>64475</v>
+      </c>
+      <c r="E191">
+        <v>37250</v>
+      </c>
+      <c r="F191">
+        <v>38000</v>
+      </c>
+      <c r="I191">
+        <v>10500</v>
+      </c>
+      <c r="J191">
+        <v>1000</v>
+      </c>
+      <c r="M191">
+        <v>300000</v>
+      </c>
+      <c r="R191">
+        <v>14000</v>
+      </c>
+      <c r="T191">
+        <v>1000</v>
+      </c>
+      <c r="V191">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23">
+      <c r="A192" s="2">
+        <v>45227</v>
+      </c>
+      <c r="C192">
+        <v>77500</v>
+      </c>
+      <c r="D192">
+        <v>180700</v>
+      </c>
+      <c r="F192">
+        <v>31100</v>
+      </c>
+      <c r="I192">
+        <v>7000</v>
+      </c>
+      <c r="J192">
+        <v>1000</v>
+      </c>
+      <c r="R192">
+        <v>30000</v>
+      </c>
+      <c r="T192">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23">
+      <c r="A193" s="2">
+        <v>45228</v>
+      </c>
+      <c r="D193">
+        <v>102700</v>
+      </c>
+      <c r="F193">
+        <v>57000</v>
+      </c>
+      <c r="G193">
+        <v>919250</v>
+      </c>
+      <c r="I193">
+        <v>17500</v>
+      </c>
+      <c r="J193">
+        <v>1000</v>
+      </c>
+      <c r="R193">
+        <v>9000</v>
+      </c>
+      <c r="T193">
+        <v>5000</v>
+      </c>
+      <c r="W193">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23">
+      <c r="A194" s="2">
+        <v>45229</v>
+      </c>
+      <c r="D194">
+        <v>62800</v>
+      </c>
+      <c r="F194">
+        <v>47500</v>
+      </c>
+      <c r="J194">
+        <v>1000</v>
+      </c>
+      <c r="W194">
+        <v>289500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
+      <c r="A195" s="2">
+        <v>45230</v>
+      </c>
+      <c r="C195">
+        <v>77.5</v>
+      </c>
+      <c r="D195">
+        <v>25.5</v>
+      </c>
+      <c r="F195">
+        <v>7</v>
+      </c>
+      <c r="J195">
+        <v>1000</v>
+      </c>
+      <c r="P195">
+        <v>200000</v>
+      </c>
+      <c r="U195">
+        <v>42000</v>
+      </c>
+      <c r="V195">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyse.xlsx
+++ b/Analyse.xlsx
@@ -746,9 +746,6 @@
       <c r="D12">
         <v>111150</v>
       </c>
-      <c r="F12">
-        <v>470250</v>
-      </c>
       <c r="T12">
         <v>3000</v>
       </c>
@@ -5418,13 +5415,13 @@
         <v>45230</v>
       </c>
       <c r="C195">
-        <v>77.5</v>
+        <v>77500</v>
       </c>
       <c r="D195">
-        <v>25.5</v>
+        <v>25500</v>
       </c>
       <c r="F195">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="J195">
         <v>1000</v>

--- a/Analyse.xlsx
+++ b/Analyse.xlsx
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W195"/>
+  <dimension ref="A1:W377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5436,6 +5436,4516 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="196" spans="1:23">
+      <c r="A196" s="2">
+        <v>45231</v>
+      </c>
+      <c r="D196">
+        <v>188350</v>
+      </c>
+      <c r="F196">
+        <v>30000</v>
+      </c>
+      <c r="I196">
+        <v>21000</v>
+      </c>
+      <c r="J196">
+        <v>1000</v>
+      </c>
+      <c r="K196">
+        <v>110000</v>
+      </c>
+      <c r="R196">
+        <v>37600</v>
+      </c>
+      <c r="T196">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
+      <c r="A197" s="2">
+        <v>45232</v>
+      </c>
+      <c r="D197">
+        <v>159400</v>
+      </c>
+      <c r="F197">
+        <v>58500</v>
+      </c>
+      <c r="I197">
+        <v>10500</v>
+      </c>
+      <c r="J197">
+        <v>1000</v>
+      </c>
+      <c r="R197">
+        <v>2000</v>
+      </c>
+      <c r="W197">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23">
+      <c r="A198" s="2">
+        <v>45233</v>
+      </c>
+      <c r="C198">
+        <v>77500</v>
+      </c>
+      <c r="D198">
+        <v>78900</v>
+      </c>
+      <c r="F198">
+        <v>165800</v>
+      </c>
+      <c r="I198">
+        <v>10500</v>
+      </c>
+      <c r="J198">
+        <v>1000</v>
+      </c>
+      <c r="K198">
+        <v>35000</v>
+      </c>
+      <c r="R198">
+        <v>4500</v>
+      </c>
+      <c r="T198">
+        <v>4000</v>
+      </c>
+      <c r="U198">
+        <v>152000</v>
+      </c>
+      <c r="V198">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23">
+      <c r="A199" s="2">
+        <v>45234</v>
+      </c>
+      <c r="D199">
+        <v>92000</v>
+      </c>
+      <c r="F199">
+        <v>343900</v>
+      </c>
+      <c r="I199">
+        <v>10500</v>
+      </c>
+      <c r="J199">
+        <v>1000</v>
+      </c>
+      <c r="R199">
+        <v>9000</v>
+      </c>
+      <c r="U199">
+        <v>250000</v>
+      </c>
+      <c r="V199">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23">
+      <c r="A200" s="2">
+        <v>45235</v>
+      </c>
+      <c r="C200">
+        <v>77500</v>
+      </c>
+      <c r="D200">
+        <v>195500</v>
+      </c>
+      <c r="F200">
+        <v>181500</v>
+      </c>
+      <c r="G200">
+        <v>1253250</v>
+      </c>
+      <c r="I200">
+        <v>17500</v>
+      </c>
+      <c r="J200">
+        <v>1000</v>
+      </c>
+      <c r="R200">
+        <v>44000</v>
+      </c>
+      <c r="S200">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23">
+      <c r="A201" s="2">
+        <v>45236</v>
+      </c>
+      <c r="D201">
+        <v>134650</v>
+      </c>
+      <c r="F201">
+        <v>29900</v>
+      </c>
+      <c r="J201">
+        <v>1000</v>
+      </c>
+      <c r="R201">
+        <v>40600</v>
+      </c>
+      <c r="W201">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23">
+      <c r="A202" s="2">
+        <v>45237</v>
+      </c>
+      <c r="C202">
+        <v>77500</v>
+      </c>
+      <c r="D202">
+        <v>20600</v>
+      </c>
+      <c r="F202">
+        <v>275500</v>
+      </c>
+      <c r="I202">
+        <v>10500</v>
+      </c>
+      <c r="J202">
+        <v>1500</v>
+      </c>
+      <c r="O202">
+        <v>20000</v>
+      </c>
+      <c r="S202">
+        <v>2500</v>
+      </c>
+      <c r="W202">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23">
+      <c r="A203" s="2">
+        <v>45238</v>
+      </c>
+      <c r="D203">
+        <v>125450</v>
+      </c>
+      <c r="F203">
+        <v>1413000</v>
+      </c>
+      <c r="J203">
+        <v>1000</v>
+      </c>
+      <c r="K203">
+        <v>100000</v>
+      </c>
+      <c r="R203">
+        <v>12600</v>
+      </c>
+      <c r="U203">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23">
+      <c r="A204" s="2">
+        <v>45239</v>
+      </c>
+      <c r="D204">
+        <v>197550</v>
+      </c>
+      <c r="F204">
+        <v>80000</v>
+      </c>
+      <c r="I204">
+        <v>10500</v>
+      </c>
+      <c r="J204">
+        <v>1000</v>
+      </c>
+      <c r="K204">
+        <v>35000</v>
+      </c>
+      <c r="Q204">
+        <v>1200</v>
+      </c>
+      <c r="R204">
+        <v>35500</v>
+      </c>
+      <c r="S204">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23">
+      <c r="A205" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C205">
+        <v>78500</v>
+      </c>
+      <c r="D205">
+        <v>75250</v>
+      </c>
+      <c r="F205">
+        <v>49500</v>
+      </c>
+      <c r="I205">
+        <v>10500</v>
+      </c>
+      <c r="J205">
+        <v>1000</v>
+      </c>
+      <c r="M205">
+        <v>300000</v>
+      </c>
+      <c r="R205">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23">
+      <c r="A206" s="2">
+        <v>45241</v>
+      </c>
+      <c r="D206">
+        <v>159475</v>
+      </c>
+      <c r="F206">
+        <v>147900</v>
+      </c>
+      <c r="I206">
+        <v>7000</v>
+      </c>
+      <c r="R206">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23">
+      <c r="A207" s="2">
+        <v>45242</v>
+      </c>
+      <c r="C207">
+        <v>77500</v>
+      </c>
+      <c r="D207">
+        <v>116000</v>
+      </c>
+      <c r="F207">
+        <v>29500</v>
+      </c>
+      <c r="G207">
+        <v>1377900</v>
+      </c>
+      <c r="I207">
+        <v>17500</v>
+      </c>
+      <c r="J207">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23">
+      <c r="A208" s="2">
+        <v>45243</v>
+      </c>
+      <c r="D208">
+        <v>140925</v>
+      </c>
+      <c r="J208">
+        <v>1000</v>
+      </c>
+      <c r="R208">
+        <v>10600</v>
+      </c>
+      <c r="V208">
+        <v>170000</v>
+      </c>
+      <c r="W208">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23">
+      <c r="A209" s="2">
+        <v>45244</v>
+      </c>
+      <c r="C209">
+        <v>77500</v>
+      </c>
+      <c r="D209">
+        <v>5000</v>
+      </c>
+      <c r="F209">
+        <v>102500</v>
+      </c>
+      <c r="I209">
+        <v>10500</v>
+      </c>
+      <c r="J209">
+        <v>1000</v>
+      </c>
+      <c r="Q209">
+        <v>122300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23">
+      <c r="A210" s="2">
+        <v>45245</v>
+      </c>
+      <c r="D210">
+        <v>170350</v>
+      </c>
+      <c r="E210">
+        <v>37250</v>
+      </c>
+      <c r="F210">
+        <v>872500</v>
+      </c>
+      <c r="I210">
+        <v>10500</v>
+      </c>
+      <c r="K210">
+        <v>60000</v>
+      </c>
+      <c r="Q210">
+        <v>100000</v>
+      </c>
+      <c r="R210">
+        <v>11000</v>
+      </c>
+      <c r="W210">
+        <v>19875</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23">
+      <c r="A211" s="2">
+        <v>45246</v>
+      </c>
+      <c r="D211">
+        <v>153450</v>
+      </c>
+      <c r="J211">
+        <v>1000</v>
+      </c>
+      <c r="K211">
+        <v>35000</v>
+      </c>
+      <c r="O211">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23">
+      <c r="A212" s="2">
+        <v>45247</v>
+      </c>
+      <c r="D212">
+        <v>134850</v>
+      </c>
+      <c r="F212">
+        <v>84000</v>
+      </c>
+      <c r="I212">
+        <v>7000</v>
+      </c>
+      <c r="J212">
+        <v>1000</v>
+      </c>
+      <c r="R212">
+        <v>51800</v>
+      </c>
+      <c r="V212">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23">
+      <c r="A213" s="2">
+        <v>45248</v>
+      </c>
+      <c r="C213">
+        <v>77500</v>
+      </c>
+      <c r="D213">
+        <v>199725</v>
+      </c>
+      <c r="F213">
+        <v>243500</v>
+      </c>
+      <c r="I213">
+        <v>10500</v>
+      </c>
+      <c r="J213">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23">
+      <c r="A214" s="2">
+        <v>45249</v>
+      </c>
+      <c r="D214">
+        <v>99575</v>
+      </c>
+      <c r="F214">
+        <v>51400</v>
+      </c>
+      <c r="G214">
+        <v>969800</v>
+      </c>
+      <c r="I214">
+        <v>17500</v>
+      </c>
+      <c r="J214">
+        <v>1000</v>
+      </c>
+      <c r="R214">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23">
+      <c r="A215" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B215">
+        <v>100000</v>
+      </c>
+      <c r="D215">
+        <v>55750</v>
+      </c>
+      <c r="F215">
+        <v>1670000</v>
+      </c>
+      <c r="J215">
+        <v>1000</v>
+      </c>
+      <c r="R215">
+        <v>2000</v>
+      </c>
+      <c r="U215">
+        <v>160000</v>
+      </c>
+      <c r="V215">
+        <v>64000</v>
+      </c>
+      <c r="W215">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23">
+      <c r="A216" s="2">
+        <v>45251</v>
+      </c>
+      <c r="C216">
+        <v>77500</v>
+      </c>
+      <c r="D216">
+        <v>16000</v>
+      </c>
+      <c r="F216">
+        <v>128000</v>
+      </c>
+      <c r="I216">
+        <v>10500</v>
+      </c>
+      <c r="J216">
+        <v>1000</v>
+      </c>
+      <c r="W216">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23">
+      <c r="A217" s="2">
+        <v>45252</v>
+      </c>
+      <c r="D217">
+        <v>97800</v>
+      </c>
+      <c r="I217">
+        <v>7000</v>
+      </c>
+      <c r="J217">
+        <v>1000</v>
+      </c>
+      <c r="K217">
+        <v>60000</v>
+      </c>
+      <c r="R217">
+        <v>15600</v>
+      </c>
+      <c r="S217">
+        <v>8000</v>
+      </c>
+      <c r="V217">
+        <v>25000</v>
+      </c>
+      <c r="W217">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23">
+      <c r="A218" s="2">
+        <v>45253</v>
+      </c>
+      <c r="D218">
+        <v>128725</v>
+      </c>
+      <c r="F218">
+        <v>42600</v>
+      </c>
+      <c r="J218">
+        <v>1000</v>
+      </c>
+      <c r="K218">
+        <v>35000</v>
+      </c>
+      <c r="R218">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23">
+      <c r="A219" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C219">
+        <v>77500</v>
+      </c>
+      <c r="D219">
+        <v>60835</v>
+      </c>
+      <c r="F219">
+        <v>440000</v>
+      </c>
+      <c r="I219">
+        <v>17500</v>
+      </c>
+      <c r="J219">
+        <v>1000</v>
+      </c>
+      <c r="M219">
+        <v>300000</v>
+      </c>
+      <c r="S219">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23">
+      <c r="A220" s="2">
+        <v>45255</v>
+      </c>
+      <c r="C220">
+        <v>15000</v>
+      </c>
+      <c r="D220">
+        <v>87775</v>
+      </c>
+      <c r="F220">
+        <v>40000</v>
+      </c>
+      <c r="I220">
+        <v>4000</v>
+      </c>
+      <c r="J220">
+        <v>1000</v>
+      </c>
+      <c r="R220">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23">
+      <c r="A221" s="2">
+        <v>45256</v>
+      </c>
+      <c r="D221">
+        <v>154000</v>
+      </c>
+      <c r="G221">
+        <v>1298400</v>
+      </c>
+      <c r="I221">
+        <v>17500</v>
+      </c>
+      <c r="J221">
+        <v>1000</v>
+      </c>
+      <c r="R221">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23">
+      <c r="A222" s="2">
+        <v>45257</v>
+      </c>
+      <c r="D222">
+        <v>151185</v>
+      </c>
+      <c r="F222">
+        <v>30000</v>
+      </c>
+      <c r="J222">
+        <v>1000</v>
+      </c>
+      <c r="Q222">
+        <v>1300</v>
+      </c>
+      <c r="R222">
+        <v>38000</v>
+      </c>
+      <c r="W222">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23">
+      <c r="A223" s="2">
+        <v>45258</v>
+      </c>
+      <c r="C223">
+        <v>77500</v>
+      </c>
+      <c r="D223">
+        <v>39500</v>
+      </c>
+      <c r="E223">
+        <v>37250</v>
+      </c>
+      <c r="F223">
+        <v>5000</v>
+      </c>
+      <c r="I223">
+        <v>7000</v>
+      </c>
+      <c r="J223">
+        <v>1000</v>
+      </c>
+      <c r="W223">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23">
+      <c r="A224" s="2">
+        <v>45259</v>
+      </c>
+      <c r="D224">
+        <v>53500</v>
+      </c>
+      <c r="F224">
+        <v>700000</v>
+      </c>
+      <c r="J224">
+        <v>1000</v>
+      </c>
+      <c r="K224">
+        <v>50000</v>
+      </c>
+      <c r="R224">
+        <v>20000</v>
+      </c>
+      <c r="S224">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23">
+      <c r="A225" s="2">
+        <v>45260</v>
+      </c>
+      <c r="D225">
+        <v>188250</v>
+      </c>
+      <c r="E225">
+        <v>19750</v>
+      </c>
+      <c r="F225">
+        <v>417000</v>
+      </c>
+      <c r="I225">
+        <v>10500</v>
+      </c>
+      <c r="J225">
+        <v>1000</v>
+      </c>
+      <c r="K225">
+        <v>35000</v>
+      </c>
+      <c r="P225">
+        <v>200000</v>
+      </c>
+      <c r="R225">
+        <v>28000</v>
+      </c>
+      <c r="V225">
+        <v>10000</v>
+      </c>
+      <c r="W225">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23">
+      <c r="A226" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C226">
+        <v>77500</v>
+      </c>
+      <c r="D226">
+        <v>206700</v>
+      </c>
+      <c r="F226">
+        <v>516900</v>
+      </c>
+      <c r="I226">
+        <v>7000</v>
+      </c>
+      <c r="J226">
+        <v>1000</v>
+      </c>
+      <c r="T226">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23">
+      <c r="A227" s="2">
+        <v>45262</v>
+      </c>
+      <c r="D227">
+        <v>83450</v>
+      </c>
+      <c r="F227">
+        <v>260000</v>
+      </c>
+      <c r="I227">
+        <v>10500</v>
+      </c>
+      <c r="J227">
+        <v>1000</v>
+      </c>
+      <c r="O227">
+        <v>15000</v>
+      </c>
+      <c r="R227">
+        <v>12600</v>
+      </c>
+      <c r="T227">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23">
+      <c r="A228" s="2">
+        <v>45263</v>
+      </c>
+      <c r="D228">
+        <v>112475</v>
+      </c>
+      <c r="F228">
+        <v>30000</v>
+      </c>
+      <c r="G228">
+        <v>979950</v>
+      </c>
+      <c r="I228">
+        <v>17500</v>
+      </c>
+      <c r="J228">
+        <v>1000</v>
+      </c>
+      <c r="R228">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23">
+      <c r="A229" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D229">
+        <v>210225</v>
+      </c>
+      <c r="F229">
+        <v>11900</v>
+      </c>
+      <c r="J229">
+        <v>1000</v>
+      </c>
+      <c r="T229">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23">
+      <c r="A230" s="2">
+        <v>45265</v>
+      </c>
+      <c r="C230">
+        <v>77500</v>
+      </c>
+      <c r="D230">
+        <v>11500</v>
+      </c>
+      <c r="F230">
+        <v>5000</v>
+      </c>
+      <c r="I230">
+        <v>7000</v>
+      </c>
+      <c r="J230">
+        <v>1000</v>
+      </c>
+      <c r="S230">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23">
+      <c r="A231" s="2">
+        <v>45266</v>
+      </c>
+      <c r="D231">
+        <v>118870</v>
+      </c>
+      <c r="F231">
+        <v>30000</v>
+      </c>
+      <c r="J231">
+        <v>1000</v>
+      </c>
+      <c r="K231">
+        <v>50000</v>
+      </c>
+      <c r="R231">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23">
+      <c r="A232" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D232">
+        <v>66005</v>
+      </c>
+      <c r="F232">
+        <v>94000</v>
+      </c>
+      <c r="J232">
+        <v>1000</v>
+      </c>
+      <c r="K232">
+        <v>35000</v>
+      </c>
+      <c r="R232">
+        <v>5500</v>
+      </c>
+      <c r="T232">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23">
+      <c r="A233" s="2">
+        <v>45268</v>
+      </c>
+      <c r="C233">
+        <v>77500</v>
+      </c>
+      <c r="D233">
+        <v>126615</v>
+      </c>
+      <c r="F233">
+        <v>865400</v>
+      </c>
+      <c r="I233">
+        <v>14000</v>
+      </c>
+      <c r="J233">
+        <v>1000</v>
+      </c>
+      <c r="M233">
+        <v>300000</v>
+      </c>
+      <c r="R233">
+        <v>48600</v>
+      </c>
+      <c r="W233">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23">
+      <c r="A234" s="2">
+        <v>45269</v>
+      </c>
+      <c r="D234">
+        <v>151475</v>
+      </c>
+      <c r="F234">
+        <v>140500</v>
+      </c>
+      <c r="I234">
+        <v>21000</v>
+      </c>
+      <c r="J234">
+        <v>1000</v>
+      </c>
+      <c r="R234">
+        <v>3500</v>
+      </c>
+      <c r="S234">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23">
+      <c r="A235" s="2">
+        <v>45270</v>
+      </c>
+      <c r="C235">
+        <v>77500</v>
+      </c>
+      <c r="D235">
+        <v>138755</v>
+      </c>
+      <c r="G235">
+        <v>1065700</v>
+      </c>
+      <c r="J235">
+        <v>1000</v>
+      </c>
+      <c r="S235">
+        <v>9000</v>
+      </c>
+      <c r="W235">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23">
+      <c r="A236" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D236">
+        <v>147370</v>
+      </c>
+      <c r="F236">
+        <v>30000</v>
+      </c>
+      <c r="I236">
+        <v>3000</v>
+      </c>
+      <c r="J236">
+        <v>1000</v>
+      </c>
+      <c r="R236">
+        <v>20000</v>
+      </c>
+      <c r="S236">
+        <v>120000</v>
+      </c>
+      <c r="V236">
+        <v>2500</v>
+      </c>
+      <c r="W236">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23">
+      <c r="A237" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D237">
+        <v>27500</v>
+      </c>
+      <c r="F237">
+        <v>5000</v>
+      </c>
+      <c r="I237">
+        <v>14000</v>
+      </c>
+      <c r="J237">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23">
+      <c r="A238" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D238">
+        <v>88870</v>
+      </c>
+      <c r="F238">
+        <v>33500</v>
+      </c>
+      <c r="I238">
+        <v>7000</v>
+      </c>
+      <c r="J238">
+        <v>1000</v>
+      </c>
+      <c r="K238">
+        <v>80000</v>
+      </c>
+      <c r="S238">
+        <v>30000</v>
+      </c>
+      <c r="T238">
+        <v>500</v>
+      </c>
+      <c r="U238">
+        <v>25000</v>
+      </c>
+      <c r="V238">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23">
+      <c r="A239" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C239">
+        <v>77500</v>
+      </c>
+      <c r="D239">
+        <v>106650</v>
+      </c>
+      <c r="E239">
+        <v>37250</v>
+      </c>
+      <c r="F239">
+        <v>51500</v>
+      </c>
+      <c r="J239">
+        <v>1000</v>
+      </c>
+      <c r="K239">
+        <v>35000</v>
+      </c>
+      <c r="R239">
+        <v>12600</v>
+      </c>
+      <c r="W239">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23">
+      <c r="A240" s="2">
+        <v>45275</v>
+      </c>
+      <c r="D240">
+        <v>131230</v>
+      </c>
+      <c r="F240">
+        <v>732000</v>
+      </c>
+      <c r="I240">
+        <v>10500</v>
+      </c>
+      <c r="J240">
+        <v>1000</v>
+      </c>
+      <c r="R240">
+        <v>3000</v>
+      </c>
+      <c r="V240">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23">
+      <c r="A241" s="2">
+        <v>45276</v>
+      </c>
+      <c r="C241">
+        <v>77500</v>
+      </c>
+      <c r="D241">
+        <v>355800</v>
+      </c>
+      <c r="F241">
+        <v>480000</v>
+      </c>
+      <c r="I241">
+        <v>7000</v>
+      </c>
+      <c r="J241">
+        <v>1000</v>
+      </c>
+      <c r="O241">
+        <v>55000</v>
+      </c>
+      <c r="Q241">
+        <v>1550</v>
+      </c>
+      <c r="R241">
+        <v>27400</v>
+      </c>
+      <c r="V241">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23">
+      <c r="A242" s="2">
+        <v>45277</v>
+      </c>
+      <c r="D242">
+        <v>55295</v>
+      </c>
+      <c r="G242">
+        <v>1294050</v>
+      </c>
+      <c r="I242">
+        <v>10500</v>
+      </c>
+      <c r="J242">
+        <v>1000</v>
+      </c>
+      <c r="V242">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23">
+      <c r="A243" s="2">
+        <v>45278</v>
+      </c>
+      <c r="D243">
+        <v>174874</v>
+      </c>
+      <c r="F243">
+        <v>30000</v>
+      </c>
+      <c r="J243">
+        <v>1000</v>
+      </c>
+      <c r="Q243">
+        <v>30000</v>
+      </c>
+      <c r="S243">
+        <v>2700</v>
+      </c>
+      <c r="U243">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23">
+      <c r="A244" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C244">
+        <v>77500</v>
+      </c>
+      <c r="D244">
+        <v>14000</v>
+      </c>
+      <c r="F244">
+        <v>160000</v>
+      </c>
+      <c r="I244">
+        <v>14000</v>
+      </c>
+      <c r="J244">
+        <v>1000</v>
+      </c>
+      <c r="Q244">
+        <v>2000</v>
+      </c>
+      <c r="R244">
+        <v>5000</v>
+      </c>
+      <c r="V244">
+        <v>90000</v>
+      </c>
+      <c r="W244">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23">
+      <c r="A245" s="2">
+        <v>45280</v>
+      </c>
+      <c r="D245">
+        <v>136536</v>
+      </c>
+      <c r="F245">
+        <v>32500</v>
+      </c>
+      <c r="I245">
+        <v>10500</v>
+      </c>
+      <c r="J245">
+        <v>1000</v>
+      </c>
+      <c r="K245">
+        <v>60000</v>
+      </c>
+      <c r="R245">
+        <v>37400</v>
+      </c>
+      <c r="S245">
+        <v>10600</v>
+      </c>
+      <c r="T245">
+        <v>1200</v>
+      </c>
+      <c r="V245">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23">
+      <c r="A246" s="2">
+        <v>45281</v>
+      </c>
+      <c r="D246">
+        <v>287175</v>
+      </c>
+      <c r="F246">
+        <v>492400</v>
+      </c>
+      <c r="I246">
+        <v>14000</v>
+      </c>
+      <c r="J246">
+        <v>1000</v>
+      </c>
+      <c r="K246">
+        <v>35000</v>
+      </c>
+      <c r="R246">
+        <v>11400</v>
+      </c>
+      <c r="S246">
+        <v>5040</v>
+      </c>
+      <c r="U246">
+        <v>84000</v>
+      </c>
+      <c r="W246">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23">
+      <c r="A247" s="2">
+        <v>45282</v>
+      </c>
+      <c r="D247">
+        <v>191851</v>
+      </c>
+      <c r="F247">
+        <v>30000</v>
+      </c>
+      <c r="I247">
+        <v>7000</v>
+      </c>
+      <c r="J247">
+        <v>1000</v>
+      </c>
+      <c r="R247">
+        <v>73750</v>
+      </c>
+      <c r="T247">
+        <v>2000</v>
+      </c>
+      <c r="U247">
+        <v>15000</v>
+      </c>
+      <c r="V247">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23">
+      <c r="A248" s="2">
+        <v>45283</v>
+      </c>
+      <c r="C248">
+        <v>77500</v>
+      </c>
+      <c r="D248">
+        <v>104385</v>
+      </c>
+      <c r="F248">
+        <v>756500</v>
+      </c>
+      <c r="I248">
+        <v>10500</v>
+      </c>
+      <c r="J248">
+        <v>1000</v>
+      </c>
+      <c r="R248">
+        <v>58400</v>
+      </c>
+      <c r="U248">
+        <v>145000</v>
+      </c>
+      <c r="W248">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23">
+      <c r="A249" s="2">
+        <v>45284</v>
+      </c>
+      <c r="D249">
+        <v>43780</v>
+      </c>
+      <c r="E249">
+        <v>19750</v>
+      </c>
+      <c r="F249">
+        <v>90000</v>
+      </c>
+      <c r="G249">
+        <v>766050</v>
+      </c>
+      <c r="I249">
+        <v>9000</v>
+      </c>
+      <c r="J249">
+        <v>1000</v>
+      </c>
+      <c r="T249">
+        <v>600</v>
+      </c>
+      <c r="W249">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23">
+      <c r="A250" s="2">
+        <v>45285</v>
+      </c>
+      <c r="D250">
+        <v>142380</v>
+      </c>
+      <c r="F250">
+        <v>30000</v>
+      </c>
+      <c r="I250">
+        <v>7000</v>
+      </c>
+      <c r="J250">
+        <v>1000</v>
+      </c>
+      <c r="Q250">
+        <v>1000</v>
+      </c>
+      <c r="R250">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23">
+      <c r="A251" s="2">
+        <v>45286</v>
+      </c>
+      <c r="C251">
+        <v>77500</v>
+      </c>
+      <c r="D251">
+        <v>39000</v>
+      </c>
+      <c r="F251">
+        <v>182400</v>
+      </c>
+      <c r="I251">
+        <v>10500</v>
+      </c>
+      <c r="M251">
+        <v>50500</v>
+      </c>
+      <c r="S251">
+        <v>600</v>
+      </c>
+      <c r="U251">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23">
+      <c r="A252" s="2">
+        <v>45287</v>
+      </c>
+      <c r="D252">
+        <v>197250</v>
+      </c>
+      <c r="F252">
+        <v>250300</v>
+      </c>
+      <c r="I252">
+        <v>10500</v>
+      </c>
+      <c r="J252">
+        <v>1000</v>
+      </c>
+      <c r="R252">
+        <v>2000</v>
+      </c>
+      <c r="T252">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23">
+      <c r="A253" s="2">
+        <v>45288</v>
+      </c>
+      <c r="D253">
+        <v>179590</v>
+      </c>
+      <c r="F253">
+        <v>272500</v>
+      </c>
+      <c r="I253">
+        <v>7000</v>
+      </c>
+      <c r="J253">
+        <v>1000</v>
+      </c>
+      <c r="K253">
+        <v>35000</v>
+      </c>
+      <c r="M253">
+        <v>100000</v>
+      </c>
+      <c r="R253">
+        <v>45400</v>
+      </c>
+      <c r="S253">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23">
+      <c r="A254" s="2">
+        <v>45289</v>
+      </c>
+      <c r="C254">
+        <v>77500</v>
+      </c>
+      <c r="D254">
+        <v>86300</v>
+      </c>
+      <c r="F254">
+        <v>295000</v>
+      </c>
+      <c r="I254">
+        <v>7000</v>
+      </c>
+      <c r="J254">
+        <v>1000</v>
+      </c>
+      <c r="R254">
+        <v>63000</v>
+      </c>
+      <c r="W254">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23">
+      <c r="A255" s="2">
+        <v>45290</v>
+      </c>
+      <c r="D255">
+        <v>106935</v>
+      </c>
+      <c r="I255">
+        <v>7000</v>
+      </c>
+      <c r="M255">
+        <v>150000</v>
+      </c>
+      <c r="R255">
+        <v>4800</v>
+      </c>
+      <c r="W255">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23">
+      <c r="A256" s="2">
+        <v>45291</v>
+      </c>
+      <c r="C256">
+        <v>15000</v>
+      </c>
+      <c r="D256">
+        <v>182975</v>
+      </c>
+      <c r="F256">
+        <v>296500</v>
+      </c>
+      <c r="G256">
+        <v>998900</v>
+      </c>
+      <c r="I256">
+        <v>7000</v>
+      </c>
+      <c r="J256">
+        <v>1000</v>
+      </c>
+      <c r="P256">
+        <v>200000</v>
+      </c>
+      <c r="R256">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23">
+      <c r="A257" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D257">
+        <v>138000</v>
+      </c>
+      <c r="F257">
+        <v>189000</v>
+      </c>
+      <c r="I257">
+        <v>17500</v>
+      </c>
+      <c r="R257">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23">
+      <c r="A258" s="2">
+        <v>45293</v>
+      </c>
+      <c r="C258">
+        <v>77500</v>
+      </c>
+      <c r="D258">
+        <v>45080</v>
+      </c>
+      <c r="F258">
+        <v>427800</v>
+      </c>
+      <c r="J258">
+        <v>2000</v>
+      </c>
+      <c r="O258">
+        <v>15000</v>
+      </c>
+      <c r="R258">
+        <v>14200</v>
+      </c>
+      <c r="T258">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23">
+      <c r="A259" s="2">
+        <v>45294</v>
+      </c>
+      <c r="D259">
+        <v>144275</v>
+      </c>
+      <c r="E259">
+        <v>37250</v>
+      </c>
+      <c r="F259">
+        <v>342000</v>
+      </c>
+      <c r="I259">
+        <v>10500</v>
+      </c>
+      <c r="J259">
+        <v>1000</v>
+      </c>
+      <c r="K259">
+        <v>30000</v>
+      </c>
+      <c r="R259">
+        <v>3000</v>
+      </c>
+      <c r="S259">
+        <v>1000</v>
+      </c>
+      <c r="W259">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23">
+      <c r="A260" s="2">
+        <v>45295</v>
+      </c>
+      <c r="D260">
+        <v>153405</v>
+      </c>
+      <c r="F260">
+        <v>38000</v>
+      </c>
+      <c r="I260">
+        <v>10500</v>
+      </c>
+      <c r="J260">
+        <v>1000</v>
+      </c>
+      <c r="K260">
+        <v>35000</v>
+      </c>
+      <c r="Q260">
+        <v>1000</v>
+      </c>
+      <c r="R260">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23">
+      <c r="A261" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C261">
+        <v>77500</v>
+      </c>
+      <c r="D261">
+        <v>117375</v>
+      </c>
+      <c r="F261">
+        <v>463000</v>
+      </c>
+      <c r="I261">
+        <v>10500</v>
+      </c>
+      <c r="J261">
+        <v>1000</v>
+      </c>
+      <c r="R261">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23">
+      <c r="A262" s="2">
+        <v>45297</v>
+      </c>
+      <c r="D262">
+        <v>171300</v>
+      </c>
+      <c r="F262">
+        <v>637500</v>
+      </c>
+      <c r="I262">
+        <v>10500</v>
+      </c>
+      <c r="J262">
+        <v>1000</v>
+      </c>
+      <c r="M262">
+        <v>200000</v>
+      </c>
+      <c r="R262">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23">
+      <c r="A263" s="2">
+        <v>45298</v>
+      </c>
+      <c r="D263">
+        <v>124130</v>
+      </c>
+      <c r="F263">
+        <v>69000</v>
+      </c>
+      <c r="G263">
+        <v>1259550</v>
+      </c>
+      <c r="I263">
+        <v>10500</v>
+      </c>
+      <c r="J263">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23">
+      <c r="A264" s="2">
+        <v>45299</v>
+      </c>
+      <c r="C264">
+        <v>77500</v>
+      </c>
+      <c r="D264">
+        <v>122400</v>
+      </c>
+      <c r="F264">
+        <v>360000</v>
+      </c>
+      <c r="J264">
+        <v>1000</v>
+      </c>
+      <c r="R264">
+        <v>28000</v>
+      </c>
+      <c r="S264">
+        <v>238250</v>
+      </c>
+      <c r="U264">
+        <v>51000</v>
+      </c>
+      <c r="W264">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23">
+      <c r="A265" s="2">
+        <v>45300</v>
+      </c>
+      <c r="D265">
+        <v>24100</v>
+      </c>
+      <c r="F265">
+        <v>148600</v>
+      </c>
+      <c r="I265">
+        <v>14000</v>
+      </c>
+      <c r="R265">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23">
+      <c r="A266" s="2">
+        <v>45301</v>
+      </c>
+      <c r="D266">
+        <v>139355</v>
+      </c>
+      <c r="F266">
+        <v>30000</v>
+      </c>
+      <c r="I266">
+        <v>10500</v>
+      </c>
+      <c r="J266">
+        <v>1000</v>
+      </c>
+      <c r="K266">
+        <v>80000</v>
+      </c>
+      <c r="R266">
+        <v>4500</v>
+      </c>
+      <c r="V266">
+        <v>92620</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23">
+      <c r="A267" s="2">
+        <v>45302</v>
+      </c>
+      <c r="C267">
+        <v>77500</v>
+      </c>
+      <c r="D267">
+        <v>271150</v>
+      </c>
+      <c r="E267">
+        <v>38000</v>
+      </c>
+      <c r="F267">
+        <v>577600</v>
+      </c>
+      <c r="I267">
+        <v>10500</v>
+      </c>
+      <c r="K267">
+        <v>35000</v>
+      </c>
+      <c r="R267">
+        <v>60000</v>
+      </c>
+      <c r="S267">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23">
+      <c r="A268" s="2">
+        <v>45303</v>
+      </c>
+      <c r="D268">
+        <v>142925</v>
+      </c>
+      <c r="F268">
+        <v>408000</v>
+      </c>
+      <c r="I268">
+        <v>10500</v>
+      </c>
+      <c r="J268">
+        <v>1000</v>
+      </c>
+      <c r="R268">
+        <v>19800</v>
+      </c>
+      <c r="S268">
+        <v>10200</v>
+      </c>
+      <c r="V268">
+        <v>255000</v>
+      </c>
+      <c r="W268">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23">
+      <c r="A269" s="2">
+        <v>45304</v>
+      </c>
+      <c r="D269">
+        <v>127845</v>
+      </c>
+      <c r="F269">
+        <v>756400</v>
+      </c>
+      <c r="I269">
+        <v>10500</v>
+      </c>
+      <c r="J269">
+        <v>1000</v>
+      </c>
+      <c r="R269">
+        <v>36000</v>
+      </c>
+      <c r="V269">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23">
+      <c r="A270" s="2">
+        <v>45305</v>
+      </c>
+      <c r="C270">
+        <v>77500</v>
+      </c>
+      <c r="D270">
+        <v>82025</v>
+      </c>
+      <c r="F270">
+        <v>340900</v>
+      </c>
+      <c r="G270">
+        <v>1084500</v>
+      </c>
+      <c r="I270">
+        <v>14000</v>
+      </c>
+      <c r="M270">
+        <v>100000</v>
+      </c>
+      <c r="R270">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23">
+      <c r="A271" s="2">
+        <v>45306</v>
+      </c>
+      <c r="D271">
+        <v>185215</v>
+      </c>
+      <c r="F271">
+        <v>65000</v>
+      </c>
+      <c r="J271">
+        <v>1000</v>
+      </c>
+      <c r="R271">
+        <v>28000</v>
+      </c>
+      <c r="S271">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23">
+      <c r="A272" s="2">
+        <v>45307</v>
+      </c>
+      <c r="C272">
+        <v>77500</v>
+      </c>
+      <c r="D272">
+        <v>19600</v>
+      </c>
+      <c r="F272">
+        <v>359000</v>
+      </c>
+      <c r="I272">
+        <v>10500</v>
+      </c>
+      <c r="J272">
+        <v>2000</v>
+      </c>
+      <c r="O272">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23">
+      <c r="A273" s="2">
+        <v>45308</v>
+      </c>
+      <c r="D273">
+        <v>114770</v>
+      </c>
+      <c r="F273">
+        <v>994500</v>
+      </c>
+      <c r="I273">
+        <v>10500</v>
+      </c>
+      <c r="J273">
+        <v>2000</v>
+      </c>
+      <c r="K273">
+        <v>50000</v>
+      </c>
+      <c r="M273">
+        <v>300000</v>
+      </c>
+      <c r="R273">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23">
+      <c r="A274" s="2">
+        <v>45309</v>
+      </c>
+      <c r="D274">
+        <v>118395</v>
+      </c>
+      <c r="F274">
+        <v>159600</v>
+      </c>
+      <c r="I274">
+        <v>10500</v>
+      </c>
+      <c r="J274">
+        <v>1500</v>
+      </c>
+      <c r="K274">
+        <v>35000</v>
+      </c>
+      <c r="R274">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23">
+      <c r="A275" s="2">
+        <v>45310</v>
+      </c>
+      <c r="C275">
+        <v>77500</v>
+      </c>
+      <c r="D275">
+        <v>184775</v>
+      </c>
+      <c r="F275">
+        <v>2000</v>
+      </c>
+      <c r="I275">
+        <v>10500</v>
+      </c>
+      <c r="J275">
+        <v>2000</v>
+      </c>
+      <c r="U275">
+        <v>20000</v>
+      </c>
+      <c r="V275">
+        <v>10000</v>
+      </c>
+      <c r="W275">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23">
+      <c r="A276" s="2">
+        <v>45311</v>
+      </c>
+      <c r="D276">
+        <v>138885</v>
+      </c>
+      <c r="F276">
+        <v>625200</v>
+      </c>
+      <c r="I276">
+        <v>10500</v>
+      </c>
+      <c r="J276">
+        <v>2000</v>
+      </c>
+      <c r="R276">
+        <v>21200</v>
+      </c>
+      <c r="V276">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23">
+      <c r="A277" s="2">
+        <v>45312</v>
+      </c>
+      <c r="D277">
+        <v>75475</v>
+      </c>
+      <c r="F277">
+        <v>58200</v>
+      </c>
+      <c r="G277">
+        <v>887900</v>
+      </c>
+      <c r="I277">
+        <v>14000</v>
+      </c>
+      <c r="J277">
+        <v>1000</v>
+      </c>
+      <c r="K277">
+        <v>25000</v>
+      </c>
+      <c r="W277">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23">
+      <c r="A278" s="2">
+        <v>45313</v>
+      </c>
+      <c r="C278">
+        <v>77500</v>
+      </c>
+      <c r="D278">
+        <v>141980</v>
+      </c>
+      <c r="F278">
+        <v>1286000</v>
+      </c>
+      <c r="Q278">
+        <v>240000</v>
+      </c>
+      <c r="R278">
+        <v>3500</v>
+      </c>
+      <c r="W278">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23">
+      <c r="A279" s="2">
+        <v>45314</v>
+      </c>
+      <c r="D279">
+        <v>21100</v>
+      </c>
+      <c r="F279">
+        <v>38000</v>
+      </c>
+      <c r="J279">
+        <v>2000</v>
+      </c>
+      <c r="R279">
+        <v>10000</v>
+      </c>
+      <c r="W279">
+        <v>142375</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23">
+      <c r="A280" s="2">
+        <v>45315</v>
+      </c>
+      <c r="D280">
+        <v>120730</v>
+      </c>
+      <c r="F280">
+        <v>270000</v>
+      </c>
+      <c r="I280">
+        <v>14000</v>
+      </c>
+      <c r="J280">
+        <v>2000</v>
+      </c>
+      <c r="K280">
+        <v>70000</v>
+      </c>
+      <c r="Q280">
+        <v>3200</v>
+      </c>
+      <c r="R280">
+        <v>16800</v>
+      </c>
+      <c r="S280">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23">
+      <c r="A281" s="2">
+        <v>45316</v>
+      </c>
+      <c r="C281">
+        <v>77500</v>
+      </c>
+      <c r="D281">
+        <v>63260</v>
+      </c>
+      <c r="F281">
+        <v>63400</v>
+      </c>
+      <c r="I281">
+        <v>10500</v>
+      </c>
+      <c r="K281">
+        <v>35000</v>
+      </c>
+      <c r="R281">
+        <v>1000</v>
+      </c>
+      <c r="U281">
+        <v>30000</v>
+      </c>
+      <c r="W281">
+        <v>147500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23">
+      <c r="A282" s="2">
+        <v>45317</v>
+      </c>
+      <c r="D282">
+        <v>103895</v>
+      </c>
+      <c r="F282">
+        <v>234000</v>
+      </c>
+      <c r="I282">
+        <v>10500</v>
+      </c>
+      <c r="J282">
+        <v>1000</v>
+      </c>
+      <c r="R282">
+        <v>29500</v>
+      </c>
+      <c r="S282">
+        <v>4500</v>
+      </c>
+      <c r="V282">
+        <v>2000</v>
+      </c>
+      <c r="W282">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23">
+      <c r="A283" s="2">
+        <v>45318</v>
+      </c>
+      <c r="D283">
+        <v>195990</v>
+      </c>
+      <c r="F283">
+        <v>287500</v>
+      </c>
+      <c r="I283">
+        <v>10500</v>
+      </c>
+      <c r="J283">
+        <v>1000</v>
+      </c>
+      <c r="W283">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23">
+      <c r="A284" s="2">
+        <v>45319</v>
+      </c>
+      <c r="C284">
+        <v>77500</v>
+      </c>
+      <c r="D284">
+        <v>91675</v>
+      </c>
+      <c r="F284">
+        <v>30000</v>
+      </c>
+      <c r="G284">
+        <v>973350</v>
+      </c>
+      <c r="I284">
+        <v>17500</v>
+      </c>
+      <c r="J284">
+        <v>1000</v>
+      </c>
+      <c r="R284">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23">
+      <c r="A285" s="2">
+        <v>45320</v>
+      </c>
+      <c r="D285">
+        <v>153580</v>
+      </c>
+      <c r="J285">
+        <v>1000</v>
+      </c>
+      <c r="M285">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23">
+      <c r="A286" s="2">
+        <v>45321</v>
+      </c>
+      <c r="D286">
+        <v>11000</v>
+      </c>
+      <c r="F286">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23">
+      <c r="A287" s="2">
+        <v>45322</v>
+      </c>
+      <c r="D287">
+        <v>88400</v>
+      </c>
+      <c r="F287">
+        <v>70000</v>
+      </c>
+      <c r="I287">
+        <v>17500</v>
+      </c>
+      <c r="J287">
+        <v>1000</v>
+      </c>
+      <c r="K287">
+        <v>50000</v>
+      </c>
+      <c r="P287">
+        <v>200000</v>
+      </c>
+      <c r="R287">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23">
+      <c r="A288" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C288">
+        <v>77500</v>
+      </c>
+      <c r="D288">
+        <v>60000</v>
+      </c>
+      <c r="F288">
+        <v>1170900</v>
+      </c>
+      <c r="I288">
+        <v>10500</v>
+      </c>
+      <c r="J288">
+        <v>1000</v>
+      </c>
+      <c r="K288">
+        <v>50000</v>
+      </c>
+      <c r="R288">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23">
+      <c r="A289" s="2">
+        <v>45324</v>
+      </c>
+      <c r="D289">
+        <v>132795</v>
+      </c>
+      <c r="E289">
+        <v>37250</v>
+      </c>
+      <c r="F289">
+        <v>328000</v>
+      </c>
+      <c r="I289">
+        <v>10500</v>
+      </c>
+      <c r="J289">
+        <v>1000</v>
+      </c>
+      <c r="M289">
+        <v>150000</v>
+      </c>
+      <c r="O289">
+        <v>15000</v>
+      </c>
+      <c r="R289">
+        <v>20000</v>
+      </c>
+      <c r="V289">
+        <v>3500</v>
+      </c>
+      <c r="W289">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23">
+      <c r="A290" s="2">
+        <v>45325</v>
+      </c>
+      <c r="D290">
+        <v>165280</v>
+      </c>
+      <c r="F290">
+        <v>283000</v>
+      </c>
+      <c r="I290">
+        <v>10500</v>
+      </c>
+      <c r="J290">
+        <v>1000</v>
+      </c>
+      <c r="Q290">
+        <v>1000</v>
+      </c>
+      <c r="R290">
+        <v>18800</v>
+      </c>
+      <c r="S290">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23">
+      <c r="A291" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C291">
+        <v>77500</v>
+      </c>
+      <c r="D291">
+        <v>102420</v>
+      </c>
+      <c r="G291">
+        <v>119900</v>
+      </c>
+      <c r="I291">
+        <v>17500</v>
+      </c>
+      <c r="J291">
+        <v>1000</v>
+      </c>
+      <c r="R291">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23">
+      <c r="A292" s="2">
+        <v>45327</v>
+      </c>
+      <c r="D292">
+        <v>206625</v>
+      </c>
+      <c r="F292">
+        <v>168500</v>
+      </c>
+      <c r="J292">
+        <v>1000</v>
+      </c>
+      <c r="Q292">
+        <v>500</v>
+      </c>
+      <c r="R292">
+        <v>1600</v>
+      </c>
+      <c r="W292">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23">
+      <c r="A293" s="2">
+        <v>45328</v>
+      </c>
+      <c r="D293">
+        <v>20500</v>
+      </c>
+      <c r="I293">
+        <v>7000</v>
+      </c>
+      <c r="J293">
+        <v>2000</v>
+      </c>
+      <c r="S293">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23">
+      <c r="A294" s="2">
+        <v>45329</v>
+      </c>
+      <c r="D294">
+        <v>117000</v>
+      </c>
+      <c r="F294">
+        <v>342500</v>
+      </c>
+      <c r="I294">
+        <v>7000</v>
+      </c>
+      <c r="J294">
+        <v>1000</v>
+      </c>
+      <c r="K294">
+        <v>50000</v>
+      </c>
+      <c r="Q294">
+        <v>3200</v>
+      </c>
+      <c r="R294">
+        <v>44800</v>
+      </c>
+      <c r="T294">
+        <v>1000</v>
+      </c>
+      <c r="V294">
+        <v>48000</v>
+      </c>
+      <c r="W294">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23">
+      <c r="A295" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C295">
+        <v>77500</v>
+      </c>
+      <c r="D295">
+        <v>63765</v>
+      </c>
+      <c r="F295">
+        <v>5000</v>
+      </c>
+      <c r="I295">
+        <v>14000</v>
+      </c>
+      <c r="J295">
+        <v>1000</v>
+      </c>
+      <c r="K295">
+        <v>50000</v>
+      </c>
+      <c r="R295">
+        <v>126000</v>
+      </c>
+      <c r="T295">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23">
+      <c r="A296" s="2">
+        <v>45331</v>
+      </c>
+      <c r="D296">
+        <v>175590</v>
+      </c>
+      <c r="F296">
+        <v>467400</v>
+      </c>
+      <c r="I296">
+        <v>10500</v>
+      </c>
+      <c r="J296">
+        <v>1000</v>
+      </c>
+      <c r="Q296">
+        <v>20000</v>
+      </c>
+      <c r="R296">
+        <v>16800</v>
+      </c>
+      <c r="U296">
+        <v>252500</v>
+      </c>
+      <c r="V296">
+        <v>477000</v>
+      </c>
+      <c r="W296">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23">
+      <c r="A297" s="2">
+        <v>45332</v>
+      </c>
+      <c r="D297">
+        <v>89335</v>
+      </c>
+      <c r="F297">
+        <v>594800</v>
+      </c>
+      <c r="J297">
+        <v>1000</v>
+      </c>
+      <c r="R297">
+        <v>1000</v>
+      </c>
+      <c r="S297">
+        <v>14000</v>
+      </c>
+      <c r="U297">
+        <v>30000</v>
+      </c>
+      <c r="V297">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23">
+      <c r="A298" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C298">
+        <v>77500</v>
+      </c>
+      <c r="D298">
+        <v>109130</v>
+      </c>
+      <c r="F298">
+        <v>30000</v>
+      </c>
+      <c r="G298">
+        <v>126000</v>
+      </c>
+      <c r="I298">
+        <v>24500</v>
+      </c>
+      <c r="J298">
+        <v>1000</v>
+      </c>
+      <c r="M298">
+        <v>300000</v>
+      </c>
+      <c r="V298">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23">
+      <c r="A299" s="2">
+        <v>45334</v>
+      </c>
+      <c r="D299">
+        <v>116005</v>
+      </c>
+      <c r="E299">
+        <v>38000</v>
+      </c>
+      <c r="F299">
+        <v>2070000</v>
+      </c>
+      <c r="J299">
+        <v>1000</v>
+      </c>
+      <c r="R299">
+        <v>5250</v>
+      </c>
+      <c r="S299">
+        <v>1000</v>
+      </c>
+      <c r="T299">
+        <v>3000</v>
+      </c>
+      <c r="U299">
+        <v>30000</v>
+      </c>
+      <c r="V299">
+        <v>64000</v>
+      </c>
+      <c r="W299">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23">
+      <c r="A300" s="2">
+        <v>45335</v>
+      </c>
+      <c r="D300">
+        <v>31000</v>
+      </c>
+      <c r="F300">
+        <v>90000</v>
+      </c>
+      <c r="I300">
+        <v>7000</v>
+      </c>
+      <c r="R300">
+        <v>5400</v>
+      </c>
+      <c r="U300">
+        <v>134000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23">
+      <c r="A301" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D301">
+        <v>186795</v>
+      </c>
+      <c r="F301">
+        <v>600500</v>
+      </c>
+      <c r="I301">
+        <v>14000</v>
+      </c>
+      <c r="J301">
+        <v>1500</v>
+      </c>
+      <c r="K301">
+        <v>150000</v>
+      </c>
+      <c r="R301">
+        <v>68400</v>
+      </c>
+      <c r="T301">
+        <v>5000</v>
+      </c>
+      <c r="U301">
+        <v>56600</v>
+      </c>
+      <c r="V301">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23">
+      <c r="A302" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C302">
+        <v>77500</v>
+      </c>
+      <c r="D302">
+        <v>129315</v>
+      </c>
+      <c r="I302">
+        <v>7000</v>
+      </c>
+      <c r="J302">
+        <v>1000</v>
+      </c>
+      <c r="K302">
+        <v>35000</v>
+      </c>
+      <c r="R302">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23">
+      <c r="A303" s="2">
+        <v>45338</v>
+      </c>
+      <c r="D303">
+        <v>47900</v>
+      </c>
+      <c r="E303">
+        <v>37250</v>
+      </c>
+      <c r="F303">
+        <v>46000</v>
+      </c>
+      <c r="I303">
+        <v>10500</v>
+      </c>
+      <c r="J303">
+        <v>1000</v>
+      </c>
+      <c r="O303">
+        <v>55000</v>
+      </c>
+      <c r="R303">
+        <v>17800</v>
+      </c>
+      <c r="U303">
+        <v>20000</v>
+      </c>
+      <c r="V303">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23">
+      <c r="A304" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D304">
+        <v>155850</v>
+      </c>
+      <c r="F304">
+        <v>841200</v>
+      </c>
+      <c r="I304">
+        <v>14000</v>
+      </c>
+      <c r="J304">
+        <v>1000</v>
+      </c>
+      <c r="R304">
+        <v>10400</v>
+      </c>
+      <c r="V304">
+        <v>3500</v>
+      </c>
+      <c r="W304">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23">
+      <c r="A305" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C305">
+        <v>77500</v>
+      </c>
+      <c r="D305">
+        <v>115300</v>
+      </c>
+      <c r="F305">
+        <v>5000</v>
+      </c>
+      <c r="G305">
+        <v>590800</v>
+      </c>
+      <c r="I305">
+        <v>17500</v>
+      </c>
+      <c r="J305">
+        <v>1000</v>
+      </c>
+      <c r="R305">
+        <v>3000</v>
+      </c>
+      <c r="V305">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23">
+      <c r="A306" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D306">
+        <v>110910</v>
+      </c>
+      <c r="F306">
+        <v>63400</v>
+      </c>
+      <c r="J306">
+        <v>1000</v>
+      </c>
+      <c r="Q306">
+        <v>10000</v>
+      </c>
+      <c r="S306">
+        <v>12000</v>
+      </c>
+      <c r="T306">
+        <v>2000</v>
+      </c>
+      <c r="U306">
+        <v>145400</v>
+      </c>
+      <c r="V306">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23">
+      <c r="A307" s="2">
+        <v>45342</v>
+      </c>
+      <c r="D307">
+        <v>12600</v>
+      </c>
+      <c r="F307">
+        <v>1106000</v>
+      </c>
+      <c r="I307">
+        <v>10500</v>
+      </c>
+      <c r="J307">
+        <v>1000</v>
+      </c>
+      <c r="R307">
+        <v>8400</v>
+      </c>
+      <c r="S307">
+        <v>200</v>
+      </c>
+      <c r="V307">
+        <v>250000</v>
+      </c>
+      <c r="W307">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23">
+      <c r="A308" s="2">
+        <v>45343</v>
+      </c>
+      <c r="C308">
+        <v>77500</v>
+      </c>
+      <c r="D308">
+        <v>154405</v>
+      </c>
+      <c r="F308">
+        <v>10500</v>
+      </c>
+      <c r="I308">
+        <v>7000</v>
+      </c>
+      <c r="J308">
+        <v>1000</v>
+      </c>
+      <c r="K308">
+        <v>50000</v>
+      </c>
+      <c r="R308">
+        <v>128000</v>
+      </c>
+      <c r="T308">
+        <v>1000</v>
+      </c>
+      <c r="U308">
+        <v>15000</v>
+      </c>
+      <c r="W308">
+        <v>289000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23">
+      <c r="A309" s="2">
+        <v>45344</v>
+      </c>
+      <c r="D309">
+        <v>139600</v>
+      </c>
+      <c r="F309">
+        <v>95400</v>
+      </c>
+      <c r="I309">
+        <v>10500</v>
+      </c>
+      <c r="J309">
+        <v>1000</v>
+      </c>
+      <c r="K309">
+        <v>80000</v>
+      </c>
+      <c r="R309">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23">
+      <c r="A310" s="2">
+        <v>45345</v>
+      </c>
+      <c r="D310">
+        <v>104375</v>
+      </c>
+      <c r="F310">
+        <v>317500</v>
+      </c>
+      <c r="I310">
+        <v>10500</v>
+      </c>
+      <c r="J310">
+        <v>1000</v>
+      </c>
+      <c r="R310">
+        <v>10000</v>
+      </c>
+      <c r="V310">
+        <v>505000</v>
+      </c>
+      <c r="W310">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23">
+      <c r="A311" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C311">
+        <v>77500</v>
+      </c>
+      <c r="D311">
+        <v>118500</v>
+      </c>
+      <c r="F311">
+        <v>30000</v>
+      </c>
+      <c r="I311">
+        <v>10500</v>
+      </c>
+      <c r="J311">
+        <v>1000</v>
+      </c>
+      <c r="M311">
+        <v>300000</v>
+      </c>
+      <c r="R311">
+        <v>13600</v>
+      </c>
+      <c r="V311">
+        <v>12000</v>
+      </c>
+      <c r="W311">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23">
+      <c r="A312" s="2">
+        <v>45347</v>
+      </c>
+      <c r="D312">
+        <v>73130</v>
+      </c>
+      <c r="F312">
+        <v>13500</v>
+      </c>
+      <c r="G312">
+        <v>238750</v>
+      </c>
+      <c r="I312">
+        <v>17500</v>
+      </c>
+      <c r="J312">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23">
+      <c r="A313" s="2">
+        <v>45348</v>
+      </c>
+      <c r="D313">
+        <v>154265</v>
+      </c>
+      <c r="F313">
+        <v>140400</v>
+      </c>
+      <c r="J313">
+        <v>1000</v>
+      </c>
+      <c r="R313">
+        <v>32600</v>
+      </c>
+      <c r="T313">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23">
+      <c r="A314" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C314">
+        <v>77500</v>
+      </c>
+      <c r="D314">
+        <v>42700</v>
+      </c>
+      <c r="J314">
+        <v>1000</v>
+      </c>
+      <c r="R314">
+        <v>800</v>
+      </c>
+      <c r="U314">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23">
+      <c r="A315" s="2">
+        <v>45350</v>
+      </c>
+      <c r="D315">
+        <v>102080</v>
+      </c>
+      <c r="I315">
+        <v>10500</v>
+      </c>
+      <c r="J315">
+        <v>1000</v>
+      </c>
+      <c r="K315">
+        <v>50000</v>
+      </c>
+      <c r="Q315">
+        <v>1000</v>
+      </c>
+      <c r="R315">
+        <v>28000</v>
+      </c>
+      <c r="V315">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23">
+      <c r="A316" s="2">
+        <v>45351</v>
+      </c>
+      <c r="D316">
+        <v>195840</v>
+      </c>
+      <c r="F316">
+        <v>175500</v>
+      </c>
+      <c r="I316">
+        <v>9000</v>
+      </c>
+      <c r="K316">
+        <v>35000</v>
+      </c>
+      <c r="P316">
+        <v>200000</v>
+      </c>
+      <c r="R316">
+        <v>3200</v>
+      </c>
+      <c r="T316">
+        <v>1000</v>
+      </c>
+      <c r="V316">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23">
+      <c r="A317" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C317">
+        <v>77500</v>
+      </c>
+      <c r="D317">
+        <v>62475</v>
+      </c>
+      <c r="F317">
+        <v>480000</v>
+      </c>
+      <c r="I317">
+        <v>7500</v>
+      </c>
+      <c r="J317">
+        <v>1000</v>
+      </c>
+      <c r="R317">
+        <v>12600</v>
+      </c>
+      <c r="W317">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23">
+      <c r="A318" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D318">
+        <v>96820</v>
+      </c>
+      <c r="F318">
+        <v>172500</v>
+      </c>
+      <c r="J318">
+        <v>1000</v>
+      </c>
+      <c r="O318">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23">
+      <c r="A319" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D319">
+        <v>114940</v>
+      </c>
+      <c r="F319">
+        <v>590000</v>
+      </c>
+      <c r="G319">
+        <v>215500</v>
+      </c>
+      <c r="I319">
+        <v>28000</v>
+      </c>
+      <c r="J319">
+        <v>1000</v>
+      </c>
+      <c r="R319">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23">
+      <c r="A320" s="2">
+        <v>45355</v>
+      </c>
+      <c r="C320">
+        <v>77500</v>
+      </c>
+      <c r="D320">
+        <v>160110</v>
+      </c>
+      <c r="E320">
+        <v>55875</v>
+      </c>
+      <c r="F320">
+        <v>31700</v>
+      </c>
+      <c r="J320">
+        <v>1000</v>
+      </c>
+      <c r="S320">
+        <v>9000</v>
+      </c>
+      <c r="W320">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23">
+      <c r="A321" s="2">
+        <v>45356</v>
+      </c>
+      <c r="D321">
+        <v>52900</v>
+      </c>
+      <c r="F321">
+        <v>1047500</v>
+      </c>
+      <c r="I321">
+        <v>10500</v>
+      </c>
+      <c r="J321">
+        <v>500</v>
+      </c>
+      <c r="S321">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23">
+      <c r="A322" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D322">
+        <v>242655</v>
+      </c>
+      <c r="F322">
+        <v>283250</v>
+      </c>
+      <c r="I322">
+        <v>10500</v>
+      </c>
+      <c r="J322">
+        <v>1000</v>
+      </c>
+      <c r="K322">
+        <v>50000</v>
+      </c>
+      <c r="M322">
+        <v>300000</v>
+      </c>
+      <c r="Q322">
+        <v>1000</v>
+      </c>
+      <c r="T322">
+        <v>7000</v>
+      </c>
+      <c r="U322">
+        <v>20000</v>
+      </c>
+      <c r="V322">
+        <v>34000</v>
+      </c>
+      <c r="W322">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23">
+      <c r="A323" s="2">
+        <v>45358</v>
+      </c>
+      <c r="C323">
+        <v>77500</v>
+      </c>
+      <c r="D323">
+        <v>91540</v>
+      </c>
+      <c r="F323">
+        <v>1940000</v>
+      </c>
+      <c r="I323">
+        <v>10500</v>
+      </c>
+      <c r="J323">
+        <v>1000</v>
+      </c>
+      <c r="K323">
+        <v>35000</v>
+      </c>
+      <c r="R323">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23">
+      <c r="A324" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D324">
+        <v>76555</v>
+      </c>
+      <c r="F324">
+        <v>95000</v>
+      </c>
+      <c r="I324">
+        <v>7000</v>
+      </c>
+      <c r="J324">
+        <v>1000</v>
+      </c>
+      <c r="M324">
+        <v>150000</v>
+      </c>
+      <c r="R324">
+        <v>77600</v>
+      </c>
+      <c r="S324">
+        <v>3000</v>
+      </c>
+      <c r="W324">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23">
+      <c r="A325" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D325">
+        <v>118525</v>
+      </c>
+      <c r="F325">
+        <v>280000</v>
+      </c>
+      <c r="I325">
+        <v>14000</v>
+      </c>
+      <c r="J325">
+        <v>2000</v>
+      </c>
+      <c r="R325">
+        <v>5000</v>
+      </c>
+      <c r="W325">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23">
+      <c r="A326" s="2">
+        <v>45361</v>
+      </c>
+      <c r="C326">
+        <v>77500</v>
+      </c>
+      <c r="D326">
+        <v>137900</v>
+      </c>
+      <c r="F326">
+        <v>238000</v>
+      </c>
+      <c r="G326">
+        <v>276000</v>
+      </c>
+      <c r="I326">
+        <v>10500</v>
+      </c>
+      <c r="J326">
+        <v>1000</v>
+      </c>
+      <c r="R326">
+        <v>80300</v>
+      </c>
+      <c r="S326">
+        <v>1500</v>
+      </c>
+      <c r="V326">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23">
+      <c r="A327" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D327">
+        <v>116765</v>
+      </c>
+      <c r="F327">
+        <v>287500</v>
+      </c>
+      <c r="J327">
+        <v>1000</v>
+      </c>
+      <c r="W327">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23">
+      <c r="A328" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D328">
+        <v>27000</v>
+      </c>
+      <c r="F328">
+        <v>3000</v>
+      </c>
+      <c r="J328">
+        <v>1000</v>
+      </c>
+      <c r="R328">
+        <v>4000</v>
+      </c>
+      <c r="W328">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23">
+      <c r="A329" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D329">
+        <v>72595</v>
+      </c>
+      <c r="F329">
+        <v>351000</v>
+      </c>
+      <c r="I329">
+        <v>17500</v>
+      </c>
+      <c r="J329">
+        <v>1000</v>
+      </c>
+      <c r="K329">
+        <v>80000</v>
+      </c>
+      <c r="R329">
+        <v>6000</v>
+      </c>
+      <c r="U329">
+        <v>10000</v>
+      </c>
+      <c r="W329">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23">
+      <c r="A330" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C330">
+        <v>77500</v>
+      </c>
+      <c r="D330">
+        <v>96625</v>
+      </c>
+      <c r="F330">
+        <v>50000</v>
+      </c>
+      <c r="I330">
+        <v>7000</v>
+      </c>
+      <c r="J330">
+        <v>1000</v>
+      </c>
+      <c r="K330">
+        <v>35000</v>
+      </c>
+      <c r="R330">
+        <v>70000</v>
+      </c>
+      <c r="W330">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23">
+      <c r="A331" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D331">
+        <v>104620</v>
+      </c>
+      <c r="F331">
+        <v>38000</v>
+      </c>
+      <c r="I331">
+        <v>10500</v>
+      </c>
+      <c r="J331">
+        <v>1000</v>
+      </c>
+      <c r="O331">
+        <v>55000</v>
+      </c>
+      <c r="R331">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23">
+      <c r="A332" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D332">
+        <v>67760</v>
+      </c>
+      <c r="F332">
+        <v>391500</v>
+      </c>
+      <c r="I332">
+        <v>10500</v>
+      </c>
+      <c r="J332">
+        <v>1000</v>
+      </c>
+      <c r="Q332">
+        <v>4500</v>
+      </c>
+      <c r="V332">
+        <v>15000</v>
+      </c>
+      <c r="W332">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23">
+      <c r="A333" s="2">
+        <v>45368</v>
+      </c>
+      <c r="C333">
+        <v>77500</v>
+      </c>
+      <c r="D333">
+        <v>46580</v>
+      </c>
+      <c r="F333">
+        <v>500</v>
+      </c>
+      <c r="G333">
+        <v>43650</v>
+      </c>
+      <c r="I333">
+        <v>14000</v>
+      </c>
+      <c r="J333">
+        <v>1000</v>
+      </c>
+      <c r="R333">
+        <v>800</v>
+      </c>
+      <c r="V333">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23">
+      <c r="A334" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D334">
+        <v>123200</v>
+      </c>
+      <c r="E334">
+        <v>37250</v>
+      </c>
+      <c r="F334">
+        <v>76400</v>
+      </c>
+      <c r="J334">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23">
+      <c r="A335" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D335">
+        <v>13500</v>
+      </c>
+      <c r="F335">
+        <v>1900000</v>
+      </c>
+      <c r="I335">
+        <v>7000</v>
+      </c>
+      <c r="J335">
+        <v>1000</v>
+      </c>
+      <c r="R335">
+        <v>4200</v>
+      </c>
+      <c r="S335">
+        <v>82500</v>
+      </c>
+      <c r="U335">
+        <v>91000</v>
+      </c>
+      <c r="V335">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23">
+      <c r="A336" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C336">
+        <v>77500</v>
+      </c>
+      <c r="D336">
+        <v>109900</v>
+      </c>
+      <c r="F336">
+        <v>35000</v>
+      </c>
+      <c r="J336">
+        <v>1000</v>
+      </c>
+      <c r="K336">
+        <v>50000</v>
+      </c>
+      <c r="S336">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23">
+      <c r="A337" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D337">
+        <v>159220</v>
+      </c>
+      <c r="I337">
+        <v>21000</v>
+      </c>
+      <c r="K337">
+        <v>35000</v>
+      </c>
+      <c r="M337">
+        <v>20000</v>
+      </c>
+      <c r="R337">
+        <v>28000</v>
+      </c>
+      <c r="V337">
+        <v>29000</v>
+      </c>
+      <c r="W337">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23">
+      <c r="A338" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D338">
+        <v>85580</v>
+      </c>
+      <c r="F338">
+        <v>587000</v>
+      </c>
+      <c r="I338">
+        <v>10500</v>
+      </c>
+      <c r="J338">
+        <v>1000</v>
+      </c>
+      <c r="R338">
+        <v>15600</v>
+      </c>
+      <c r="W338">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23">
+      <c r="A339" s="2">
+        <v>45374</v>
+      </c>
+      <c r="C339">
+        <v>77500</v>
+      </c>
+      <c r="D339">
+        <v>196350</v>
+      </c>
+      <c r="F339">
+        <v>46400</v>
+      </c>
+      <c r="I339">
+        <v>7000</v>
+      </c>
+      <c r="J339">
+        <v>1000</v>
+      </c>
+      <c r="R339">
+        <v>1000</v>
+      </c>
+      <c r="V339">
+        <v>147500</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23">
+      <c r="A340" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D340">
+        <v>75185</v>
+      </c>
+      <c r="F340">
+        <v>40000</v>
+      </c>
+      <c r="G340">
+        <v>43400</v>
+      </c>
+      <c r="I340">
+        <v>17500</v>
+      </c>
+      <c r="J340">
+        <v>1000</v>
+      </c>
+      <c r="R340">
+        <v>44450</v>
+      </c>
+      <c r="W340">
+        <v>76700</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23">
+      <c r="A341" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D341">
+        <v>95665</v>
+      </c>
+      <c r="F341">
+        <v>156800</v>
+      </c>
+      <c r="J341">
+        <v>1000</v>
+      </c>
+      <c r="V341">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23">
+      <c r="A342" s="2">
+        <v>45377</v>
+      </c>
+      <c r="C342">
+        <v>77500</v>
+      </c>
+      <c r="D342">
+        <v>16500</v>
+      </c>
+      <c r="I342">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23">
+      <c r="A343" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D343">
+        <v>191800</v>
+      </c>
+      <c r="F343">
+        <v>68000</v>
+      </c>
+      <c r="I343">
+        <v>7000</v>
+      </c>
+      <c r="J343">
+        <v>1000</v>
+      </c>
+      <c r="K343">
+        <v>50000</v>
+      </c>
+      <c r="R343">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23">
+      <c r="A344" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D344">
+        <v>90600</v>
+      </c>
+      <c r="I344">
+        <v>10500</v>
+      </c>
+      <c r="J344">
+        <v>1000</v>
+      </c>
+      <c r="K344">
+        <v>35000</v>
+      </c>
+      <c r="R344">
+        <v>800</v>
+      </c>
+      <c r="T344">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23">
+      <c r="A345" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D345">
+        <v>68050</v>
+      </c>
+      <c r="F345">
+        <v>98000</v>
+      </c>
+      <c r="I345">
+        <v>7000</v>
+      </c>
+      <c r="J345">
+        <v>1000</v>
+      </c>
+      <c r="T345">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23">
+      <c r="A346" s="2">
+        <v>45381</v>
+      </c>
+      <c r="C346">
+        <v>77500</v>
+      </c>
+      <c r="D346">
+        <v>138900</v>
+      </c>
+      <c r="F346">
+        <v>360000</v>
+      </c>
+      <c r="I346">
+        <v>2000</v>
+      </c>
+      <c r="J346">
+        <v>1000</v>
+      </c>
+      <c r="R346">
+        <v>16800</v>
+      </c>
+      <c r="W346">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23">
+      <c r="A347" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D347">
+        <v>64250</v>
+      </c>
+      <c r="F347">
+        <v>52500</v>
+      </c>
+      <c r="G347">
+        <v>81250</v>
+      </c>
+      <c r="I347">
+        <v>17000</v>
+      </c>
+      <c r="J347">
+        <v>1000</v>
+      </c>
+      <c r="P347">
+        <v>200000</v>
+      </c>
+      <c r="T347">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23">
+      <c r="A348" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D348">
+        <v>69355</v>
+      </c>
+      <c r="J348">
+        <v>1000</v>
+      </c>
+      <c r="R348">
+        <v>16800</v>
+      </c>
+      <c r="W348">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23">
+      <c r="A349" s="2">
+        <v>45384</v>
+      </c>
+      <c r="C349">
+        <v>77500</v>
+      </c>
+      <c r="D349">
+        <v>26500</v>
+      </c>
+      <c r="F349">
+        <v>540000</v>
+      </c>
+      <c r="I349">
+        <v>17500</v>
+      </c>
+      <c r="O349">
+        <v>15000</v>
+      </c>
+      <c r="R349">
+        <v>2000</v>
+      </c>
+      <c r="W349">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23">
+      <c r="A350" s="2">
+        <v>45385</v>
+      </c>
+      <c r="D350">
+        <v>119000</v>
+      </c>
+      <c r="F350">
+        <v>67500</v>
+      </c>
+      <c r="I350">
+        <v>8700</v>
+      </c>
+      <c r="J350">
+        <v>1000</v>
+      </c>
+      <c r="K350">
+        <v>50000</v>
+      </c>
+      <c r="W350">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23">
+      <c r="A351" s="2">
+        <v>45386</v>
+      </c>
+      <c r="D351">
+        <v>64250</v>
+      </c>
+      <c r="E351">
+        <v>37850</v>
+      </c>
+      <c r="F351">
+        <v>240000</v>
+      </c>
+      <c r="I351">
+        <v>10500</v>
+      </c>
+      <c r="K351">
+        <v>35000</v>
+      </c>
+      <c r="R351">
+        <v>13400</v>
+      </c>
+      <c r="S351">
+        <v>27000</v>
+      </c>
+      <c r="W351">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23">
+      <c r="A352" s="2">
+        <v>45387</v>
+      </c>
+      <c r="D352">
+        <v>64990</v>
+      </c>
+      <c r="F352">
+        <v>486000</v>
+      </c>
+      <c r="I352">
+        <v>10500</v>
+      </c>
+      <c r="J352">
+        <v>1000</v>
+      </c>
+      <c r="R352">
+        <v>4050</v>
+      </c>
+      <c r="S352">
+        <v>1500</v>
+      </c>
+      <c r="V352">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23">
+      <c r="A353" s="2">
+        <v>45388</v>
+      </c>
+      <c r="D353">
+        <v>135655</v>
+      </c>
+      <c r="F353">
+        <v>60000</v>
+      </c>
+      <c r="I353">
+        <v>10500</v>
+      </c>
+      <c r="J353">
+        <v>1000</v>
+      </c>
+      <c r="R353">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23">
+      <c r="A354" s="2">
+        <v>45389</v>
+      </c>
+      <c r="C354">
+        <v>77500</v>
+      </c>
+      <c r="D354">
+        <v>158325</v>
+      </c>
+      <c r="F354">
+        <v>95000</v>
+      </c>
+      <c r="G354">
+        <v>113400</v>
+      </c>
+      <c r="I354">
+        <v>17500</v>
+      </c>
+      <c r="J354">
+        <v>1000</v>
+      </c>
+      <c r="T354">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23">
+      <c r="A355" s="2">
+        <v>45390</v>
+      </c>
+      <c r="D355">
+        <v>84550</v>
+      </c>
+      <c r="F355">
+        <v>750000</v>
+      </c>
+      <c r="J355">
+        <v>1000</v>
+      </c>
+      <c r="R355">
+        <v>3000</v>
+      </c>
+      <c r="T355">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23">
+      <c r="A356" s="2">
+        <v>45391</v>
+      </c>
+      <c r="D356">
+        <v>10500</v>
+      </c>
+      <c r="I356">
+        <v>7000</v>
+      </c>
+      <c r="J356">
+        <v>1000</v>
+      </c>
+      <c r="R356">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23">
+      <c r="A357" s="2">
+        <v>45392</v>
+      </c>
+      <c r="D357">
+        <v>50300</v>
+      </c>
+      <c r="F357">
+        <v>68000</v>
+      </c>
+      <c r="I357">
+        <v>10500</v>
+      </c>
+      <c r="J357">
+        <v>1000</v>
+      </c>
+      <c r="K357">
+        <v>50000</v>
+      </c>
+      <c r="R357">
+        <v>6000</v>
+      </c>
+      <c r="S357">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23">
+      <c r="A358" s="2">
+        <v>45393</v>
+      </c>
+      <c r="C358">
+        <v>77500</v>
+      </c>
+      <c r="D358">
+        <v>64080</v>
+      </c>
+      <c r="F358">
+        <v>8500</v>
+      </c>
+      <c r="I358">
+        <v>10500</v>
+      </c>
+      <c r="K358">
+        <v>35000</v>
+      </c>
+      <c r="V358">
+        <v>15000</v>
+      </c>
+      <c r="W358">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23">
+      <c r="A359" s="2">
+        <v>45394</v>
+      </c>
+      <c r="D359">
+        <v>50080</v>
+      </c>
+      <c r="F359">
+        <v>240900</v>
+      </c>
+      <c r="I359">
+        <v>5250</v>
+      </c>
+      <c r="J359">
+        <v>1000</v>
+      </c>
+      <c r="R359">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23">
+      <c r="A360" s="2">
+        <v>45395</v>
+      </c>
+      <c r="D360">
+        <v>117125</v>
+      </c>
+      <c r="F360">
+        <v>63000</v>
+      </c>
+      <c r="I360">
+        <v>28000</v>
+      </c>
+      <c r="J360">
+        <v>1000</v>
+      </c>
+      <c r="R360">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23">
+      <c r="A361" s="2">
+        <v>45396</v>
+      </c>
+      <c r="C361">
+        <v>77500</v>
+      </c>
+      <c r="D361">
+        <v>76500</v>
+      </c>
+      <c r="F361">
+        <v>58500</v>
+      </c>
+      <c r="G361">
+        <v>18500</v>
+      </c>
+      <c r="I361">
+        <v>10500</v>
+      </c>
+      <c r="J361">
+        <v>1000</v>
+      </c>
+      <c r="R361">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23">
+      <c r="A362" s="2">
+        <v>45397</v>
+      </c>
+      <c r="D362">
+        <v>199820</v>
+      </c>
+      <c r="F362">
+        <v>271000</v>
+      </c>
+      <c r="J362">
+        <v>1000</v>
+      </c>
+      <c r="O362">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23">
+      <c r="A363" s="2">
+        <v>45398</v>
+      </c>
+      <c r="D363">
+        <v>14500</v>
+      </c>
+      <c r="F363">
+        <v>1211000</v>
+      </c>
+      <c r="I363">
+        <v>10500</v>
+      </c>
+      <c r="J363">
+        <v>1000</v>
+      </c>
+      <c r="R363">
+        <v>4200</v>
+      </c>
+      <c r="W363">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23">
+      <c r="A364" s="2">
+        <v>45399</v>
+      </c>
+      <c r="D364">
+        <v>111980</v>
+      </c>
+      <c r="F364">
+        <v>90000</v>
+      </c>
+      <c r="I364">
+        <v>7000</v>
+      </c>
+      <c r="J364">
+        <v>1000</v>
+      </c>
+      <c r="K364">
+        <v>50000</v>
+      </c>
+      <c r="R364">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23">
+      <c r="A365" s="2">
+        <v>45400</v>
+      </c>
+      <c r="C365">
+        <v>77500</v>
+      </c>
+      <c r="D365">
+        <v>58975</v>
+      </c>
+      <c r="E365">
+        <v>37250</v>
+      </c>
+      <c r="F365">
+        <v>38000</v>
+      </c>
+      <c r="I365">
+        <v>7000</v>
+      </c>
+      <c r="J365">
+        <v>1000</v>
+      </c>
+      <c r="K365">
+        <v>35000</v>
+      </c>
+      <c r="R365">
+        <v>1000</v>
+      </c>
+      <c r="V365">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23">
+      <c r="A366" s="2">
+        <v>45401</v>
+      </c>
+      <c r="D366">
+        <v>78830</v>
+      </c>
+      <c r="F366">
+        <v>348000</v>
+      </c>
+      <c r="I366">
+        <v>17500</v>
+      </c>
+      <c r="J366">
+        <v>1000</v>
+      </c>
+      <c r="W366">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23">
+      <c r="A367" s="2">
+        <v>45402</v>
+      </c>
+      <c r="D367">
+        <v>25350</v>
+      </c>
+      <c r="F367">
+        <v>66700</v>
+      </c>
+      <c r="I367">
+        <v>10500</v>
+      </c>
+      <c r="J367">
+        <v>1000</v>
+      </c>
+      <c r="R367">
+        <v>30000</v>
+      </c>
+      <c r="S367">
+        <v>9000</v>
+      </c>
+      <c r="W367">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23">
+      <c r="A368" s="2">
+        <v>45403</v>
+      </c>
+      <c r="D368">
+        <v>115075</v>
+      </c>
+      <c r="F368">
+        <v>90000</v>
+      </c>
+      <c r="G368">
+        <v>90000</v>
+      </c>
+      <c r="I368">
+        <v>3500</v>
+      </c>
+      <c r="J368">
+        <v>1000</v>
+      </c>
+      <c r="R368">
+        <v>8400</v>
+      </c>
+      <c r="W368">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23">
+      <c r="A369" s="2">
+        <v>45404</v>
+      </c>
+      <c r="D369">
+        <v>231015</v>
+      </c>
+      <c r="E369">
+        <v>38000</v>
+      </c>
+      <c r="I369">
+        <v>2000</v>
+      </c>
+      <c r="J369">
+        <v>1000</v>
+      </c>
+      <c r="Q369">
+        <v>1000</v>
+      </c>
+      <c r="T369">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23">
+      <c r="A370" s="2">
+        <v>45405</v>
+      </c>
+      <c r="C370">
+        <v>77500</v>
+      </c>
+      <c r="D370">
+        <v>16100</v>
+      </c>
+      <c r="I370">
+        <v>10500</v>
+      </c>
+      <c r="J370">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23">
+      <c r="A371" s="2">
+        <v>45406</v>
+      </c>
+      <c r="D371">
+        <v>63625</v>
+      </c>
+      <c r="F371">
+        <v>30000</v>
+      </c>
+      <c r="J371">
+        <v>1000</v>
+      </c>
+      <c r="K371">
+        <v>100000</v>
+      </c>
+      <c r="R371">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23">
+      <c r="A372" s="2">
+        <v>45407</v>
+      </c>
+      <c r="D372">
+        <v>37600</v>
+      </c>
+      <c r="I372">
+        <v>10500</v>
+      </c>
+      <c r="J372">
+        <v>1000</v>
+      </c>
+      <c r="K372">
+        <v>35000</v>
+      </c>
+      <c r="V372">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23">
+      <c r="A373" s="2">
+        <v>45408</v>
+      </c>
+      <c r="C373">
+        <v>77500</v>
+      </c>
+      <c r="D373">
+        <v>452870</v>
+      </c>
+      <c r="E373">
+        <v>37250</v>
+      </c>
+      <c r="F373">
+        <v>528000</v>
+      </c>
+      <c r="I373">
+        <v>21000</v>
+      </c>
+      <c r="J373">
+        <v>1000</v>
+      </c>
+      <c r="R373">
+        <v>2000</v>
+      </c>
+      <c r="V373">
+        <v>15000</v>
+      </c>
+      <c r="W373">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23">
+      <c r="A374" s="2">
+        <v>45409</v>
+      </c>
+      <c r="D374">
+        <v>135035</v>
+      </c>
+      <c r="F374">
+        <v>30000</v>
+      </c>
+      <c r="I374">
+        <v>12000</v>
+      </c>
+      <c r="J374">
+        <v>1000</v>
+      </c>
+      <c r="R374">
+        <v>16800</v>
+      </c>
+      <c r="T374">
+        <v>8050</v>
+      </c>
+      <c r="W374">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23">
+      <c r="A375" s="2">
+        <v>45410</v>
+      </c>
+      <c r="D375">
+        <v>57350</v>
+      </c>
+      <c r="F375">
+        <v>167500</v>
+      </c>
+      <c r="G375">
+        <v>140400</v>
+      </c>
+      <c r="I375">
+        <v>20500</v>
+      </c>
+      <c r="J375">
+        <v>1000</v>
+      </c>
+      <c r="R375">
+        <v>3000</v>
+      </c>
+      <c r="T375">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23">
+      <c r="A376" s="2">
+        <v>45411</v>
+      </c>
+      <c r="D376">
+        <v>120940</v>
+      </c>
+      <c r="F376">
+        <v>56000</v>
+      </c>
+      <c r="I376">
+        <v>10500</v>
+      </c>
+      <c r="J376">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23">
+      <c r="A377" s="2">
+        <v>45412</v>
+      </c>
+      <c r="C377">
+        <v>77500</v>
+      </c>
+      <c r="D377">
+        <v>18600</v>
+      </c>
+      <c r="F377">
+        <v>900000</v>
+      </c>
+      <c r="I377">
+        <v>14000</v>
+      </c>
+      <c r="J377">
+        <v>1000</v>
+      </c>
+      <c r="R377">
+        <v>1000</v>
+      </c>
+      <c r="V377">
+        <v>39800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
